--- a/DIRECTORIO_FUNCIONES.xlsx
+++ b/DIRECTORIO_FUNCIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InSync\GitHub\Producto-Desarrollo-Herramientas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E41D628-160D-4D4F-BADD-0001B45FEB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC5BF57-7929-4CD1-B96C-ADCF124CAADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="SAP" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="EXCEL" sheetId="9" r:id="rId3"/>
     <sheet name="WORD" sheetId="10" r:id="rId4"/>
     <sheet name="MATH" sheetId="11" r:id="rId5"/>
-    <sheet name="Plantilla" sheetId="7" r:id="rId6"/>
+    <sheet name="TABLE" sheetId="12" r:id="rId6"/>
+    <sheet name="Plantilla" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
   <si>
     <t>Nombre</t>
   </si>
@@ -1138,87 +1139,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,13 +1169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,15 +1182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,12 +1223,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1657,7 +1663,7 @@
   </sheetPr>
   <dimension ref="B1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
@@ -1674,25 +1680,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1711,54 +1717,54 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="54" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="55" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -1766,64 +1772,64 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="2:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="52" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="56" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="53" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="33" t="s">
@@ -1834,33 +1840,33 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="80" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1870,97 +1876,97 @@
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="40"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="76"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="82"/>
     </row>
     <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="84" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="92" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="38"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="80" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="74"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
@@ -1970,10 +1976,10 @@
       <c r="E15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="76"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
@@ -3507,15 +3513,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="B12:B13"/>
@@ -3531,6 +3528,15 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3559,25 +3565,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -3596,36 +3602,36 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="52" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -3634,7 +3640,7 @@
       <c r="D5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -3643,7 +3649,7 @@
       <c r="G5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="55" t="s">
         <v>66</v>
       </c>
       <c r="I5" s="34" t="s">
@@ -3651,51 +3657,51 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="55" t="s">
         <v>72</v>
       </c>
       <c r="I7" s="34" t="s">
@@ -3703,46 +3709,46 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="80" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="76"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
@@ -5391,25 +5397,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -5428,36 +5434,36 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="80" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -5467,32 +5473,32 @@
       <c r="E5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="76"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26" t="s">
@@ -7178,25 +7184,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -7215,7 +7221,7 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -8909,25 +8915,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -8946,7 +8952,7 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -10620,6 +10626,1737 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0663F6C-9AF6-4F46-95AF-C630DE6E8D47}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF66"/>
+  </sheetPr>
+  <dimension ref="B1:I169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="97.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="70"/>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="18"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="18"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="18"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="18"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="23"/>
+      <c r="I169" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A2A14F-6A3A-4AAB-99D4-A752EFD7BF1E}">
   <dimension ref="B1:I169"/>
   <sheetViews>
@@ -10637,25 +12374,25 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -10674,7 +12411,7 @@
       <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -12345,4 +14082,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{9cd03bc6-228b-498c-891e-1d1548fbcf74}" enabled="1" method="Privileged" siteId="{7746325c-0dd0-4e2c-89a7-dd24026d484a}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/DIRECTORIO_FUNCIONES.xlsx
+++ b/DIRECTORIO_FUNCIONES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InSync\GitHub\Producto-Desarrollo-Herramientas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InSync\Producto-Desarrollo-Herramientas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD6226-528F-4571-87DC-B30520593BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC9327C-AB7B-494C-A2AB-D8CA67F74342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="WINDOWS" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="212">
   <si>
     <t>Nombre</t>
   </si>
@@ -624,6 +624,69 @@
   </si>
   <si>
     <t xml:space="preserve">Filtra una tabla dada según si los valores de una columna son mayores o menores que un valor dado </t>
+  </si>
+  <si>
+    <t>StartExcel</t>
+  </si>
+  <si>
+    <t>Abre excel en segundo plano</t>
+  </si>
+  <si>
+    <t>PasteTableInExcel</t>
+  </si>
+  <si>
+    <t>string[,]</t>
+  </si>
+  <si>
+    <t>Tabla a pegar en excel</t>
+  </si>
+  <si>
+    <t>Pega una tabla definida como string [ , ] en un excel que abre en segundo plano</t>
+  </si>
+  <si>
+    <t>OpenSAPObjectHidden</t>
+  </si>
+  <si>
+    <t>Abre la aplicación SAP2000 en segundo plano y te devuelve la instancia del objeto.</t>
+  </si>
+  <si>
+    <t>GetElements</t>
+  </si>
+  <si>
+    <t>instancia del modelo SAP</t>
+  </si>
+  <si>
+    <t>elementos</t>
+  </si>
+  <si>
+    <t>lista de nombres de elementos</t>
+  </si>
+  <si>
+    <t>Obtiene una lista con los nombres de un tipo de elemento seleccionado del modelo de SAP2000</t>
+  </si>
+  <si>
+    <t>objectType</t>
+  </si>
+  <si>
+    <t>tipo de elemento a seleccionar</t>
+  </si>
+  <si>
+    <t>ConvertListToTable</t>
+  </si>
+  <si>
+    <t>List&lt;string[]&gt;</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t>lista de datos</t>
+  </si>
+  <si>
+    <t>tabla formada por los datos de la lista</t>
+  </si>
+  <si>
+    <t>convierte una lista en una tabla</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,6 +1674,231 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,48 +1908,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,59 +1950,56 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1743,228 +2010,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1975,6 +2038,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2321,7 +2390,7 @@
   </sheetPr>
   <dimension ref="B1:J170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2337,29 +2406,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2447,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
@@ -2497,10 +2566,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="126" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -2512,22 +2581,22 @@
       <c r="F8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="126" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
@@ -2537,10 +2606,10 @@
       <c r="F9" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="127"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
@@ -4344,14 +4413,15 @@
   </sheetPr>
   <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.140625" style="1" customWidth="1"/>
@@ -4361,29 +4431,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +4472,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
@@ -4463,10 +4533,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="134" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="36" t="s">
@@ -4478,22 +4548,22 @@
       <c r="F6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="134" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
@@ -4503,10 +4573,10 @@
       <c r="F7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="60"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="135"/>
     </row>
     <row r="8" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="43" t="s">
@@ -4538,10 +4608,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="134" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="36" t="s">
@@ -4553,22 +4623,22 @@
       <c r="F9" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="62" t="s">
+      <c r="J9" s="126" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -4578,14 +4648,14 @@
       <c r="F10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="63"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4595,16 +4665,16 @@
       <c r="F11" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="64"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="137" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="48" t="s">
@@ -4616,22 +4686,22 @@
       <c r="F12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="141" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
       <c r="D13" s="51" t="s">
         <v>45</v>
       </c>
@@ -4641,16 +4711,16 @@
       <c r="F13" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="66"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="134" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="36" t="s">
@@ -4662,22 +4732,22 @@
       <c r="F14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="126" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
@@ -4687,100 +4757,142 @@
       <c r="F15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="64"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="127"/>
     </row>
     <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="107" t="s">
+      <c r="F16" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="94" t="s">
+      <c r="G16" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="138" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F17" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="103"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="5"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="139"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="145" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="147" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="175" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="181" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="146"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -6406,23 +6518,13 @@
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="32">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="38">
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="J16:J17"/>
@@ -6439,6 +6541,22 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6451,8 +6569,8 @@
   </sheetPr>
   <dimension ref="B1:J170"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6461,7 +6579,7 @@
     <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="89" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="60" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="97.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
@@ -6471,29 +6589,29 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -6512,13 +6630,13 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="134" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -6530,22 +6648,22 @@
       <c r="F4" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="134" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -6555,14 +6673,14 @@
       <c r="F5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="61"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
@@ -6572,14 +6690,14 @@
       <c r="F6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="61"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
@@ -6589,14 +6707,14 @@
       <c r="F7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="61"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
@@ -6606,79 +6724,79 @@
       <c r="F8" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="60"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="138" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="97" t="s">
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="65"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104" t="s">
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="103"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="134" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="36" t="s">
@@ -6690,22 +6808,22 @@
       <c r="F12" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="134" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -6715,14 +6833,14 @@
       <c r="F13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="61"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="136"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="3" t="s">
         <v>64</v>
       </c>
@@ -6732,14 +6850,14 @@
       <c r="F14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="61"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="136"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
@@ -6749,14 +6867,14 @@
       <c r="F15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="61"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="136"/>
     </row>
     <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
@@ -6766,14 +6884,14 @@
       <c r="F16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="61"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
       <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
@@ -6783,146 +6901,146 @@
       <c r="F17" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="60"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="76" t="s">
+      <c r="G18" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="138" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="97" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="65"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="97" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="99" t="s">
+      <c r="F20" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="65"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="137"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="103"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="92" t="s">
+      <c r="F22" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="90" t="s">
+      <c r="G22" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="91" t="s">
+      <c r="H22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="112" t="s">
+      <c r="I22" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="113" t="s">
+      <c r="J22" s="79" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="116" t="s">
+      <c r="E23" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="117" t="s">
+      <c r="F23" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="116" t="s">
+      <c r="H23" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="118" t="s">
+      <c r="I23" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="119" t="s">
+      <c r="J23" s="85" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6956,393 +7074,429 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="86" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="121" t="s">
+      <c r="E25" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="88" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="87" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="123" t="s">
+      <c r="J25" s="89" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="134" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="90" t="s">
         <v>103</v>
       </c>
       <c r="F26" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="73" t="s">
+      <c r="I26" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="134" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="90" t="s">
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="152" t="s">
+      <c r="E27" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="153" t="s">
+      <c r="F27" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="60"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="161" t="s">
+      <c r="E28" s="109" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="76" t="s">
+      <c r="G28" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="78" t="s">
+      <c r="H28" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="93" t="s">
+      <c r="J28" s="138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="103"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="104" t="s">
+      <c r="B29" s="139"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="163" t="s">
+      <c r="E29" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="164" t="s">
+      <c r="F29" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="77"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="103"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="154" t="s">
+      <c r="D30" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="155" t="s">
+      <c r="E30" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="156" t="s">
+      <c r="F30" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="132" t="s">
+      <c r="G30" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="133" t="s">
+      <c r="H30" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="134" t="s">
+      <c r="I30" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="135" t="s">
+      <c r="J30" s="151" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137" t="s">
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="138" t="s">
+      <c r="E31" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="139" t="s">
+      <c r="F31" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="140"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="143"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="152"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="145" t="s">
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="146" t="s">
+      <c r="E32" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="147" t="s">
+      <c r="F32" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="148"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="153"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="96" t="s">
+      <c r="F33" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="76" t="s">
+      <c r="G33" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="78" t="s">
+      <c r="H33" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="80" t="s">
+      <c r="I33" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="126" t="s">
+      <c r="J33" s="171" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="97" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="99" t="s">
+      <c r="F34" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="66"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="141"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104" t="s">
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="106" t="s">
+      <c r="F35" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="77"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="127"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="172"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="129" t="s">
+      <c r="D36" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="130" t="s">
+      <c r="E36" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="131" t="s">
+      <c r="F36" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="132" t="s">
+      <c r="G36" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="133" t="s">
+      <c r="H36" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="134" t="s">
+      <c r="I36" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="135" t="s">
+      <c r="J36" s="151" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="137" t="s">
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="139" t="s">
+      <c r="F37" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="140"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="143"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="163"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="152"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
-      <c r="D38" s="157" t="s">
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="158" t="s">
+      <c r="E38" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="159" t="s">
+      <c r="F38" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="140"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="152"/>
     </row>
     <row r="39" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="145" t="s">
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="146" t="s">
+      <c r="E39" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="147" t="s">
+      <c r="F39" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="148"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="151"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="153"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="115" t="s">
+      <c r="D40" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="117" t="s">
+      <c r="F40" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="115" t="s">
+      <c r="G40" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="116" t="s">
+      <c r="H40" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="118" t="s">
+      <c r="I40" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="119" t="s">
+      <c r="J40" s="85" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="13"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="5"/>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="85" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="5"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
@@ -8749,6 +8903,49 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="59">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
     <mergeCell ref="J36:J39"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
@@ -8765,49 +8962,6 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="G33:G35"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8831,9 +8985,9 @@
     <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="89" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="60" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="89" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="60" customWidth="1"/>
     <col min="10" max="10" width="97.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -8843,29 +8997,29 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -8884,13 +9038,13 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="134" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -8911,13 +9065,13 @@
       <c r="I4" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="126" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -8933,14 +9087,14 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="165" t="s">
+      <c r="I5" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="140"/>
     </row>
     <row r="6" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
@@ -8956,37 +9110,37 @@
       <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="125" t="s">
+      <c r="I6" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="64"/>
+      <c r="J6" s="127"/>
     </row>
     <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="H7" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="168" t="s">
+      <c r="I7" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="119" t="s">
+      <c r="J7" s="85" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8997,7 +9151,7 @@
       <c r="C8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="169" t="s">
+      <c r="D8" s="116" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="32" t="s">
@@ -9020,31 +9174,31 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="168" t="s">
+      <c r="I9" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="85" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9055,7 +9209,7 @@
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="116" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -9078,50 +9232,50 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="76" t="s">
+      <c r="G11" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="171" t="s">
+      <c r="I11" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="138" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="173" t="s">
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="103"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="139"/>
     </row>
     <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
@@ -9130,7 +9284,7 @@
       <c r="C13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="116" t="s">
         <v>149</v>
       </c>
       <c r="E13" s="32" t="s">
@@ -9153,42 +9307,42 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="167" t="s">
+      <c r="D14" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="116" t="s">
+      <c r="H14" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="168" t="s">
+      <c r="I14" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="119" t="s">
+      <c r="J14" s="85" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="118" t="s">
         <v>149</v>
       </c>
       <c r="E15" s="41" t="s">
@@ -9197,22 +9351,22 @@
       <c r="F15" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="170" t="s">
+      <c r="I15" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="126" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
       <c r="D16" s="7" t="s">
         <v>64</v>
       </c>
@@ -9222,10 +9376,10 @@
       <c r="F16" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="64"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="127"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -9234,10 +9388,10 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="88"/>
+      <c r="F17" s="59"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="166"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -9250,7 +9404,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="165"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -9263,7 +9417,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="165"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -9276,7 +9430,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="165"/>
+      <c r="I20" s="112"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -9289,7 +9443,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="165"/>
+      <c r="I21" s="112"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -9302,7 +9456,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="165"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -9315,7 +9469,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="165"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -9328,7 +9482,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="165"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -9341,7 +9495,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="165"/>
+      <c r="I25" s="112"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -9354,7 +9508,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="165"/>
+      <c r="I26" s="112"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -9367,7 +9521,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="165"/>
+      <c r="I27" s="112"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -9380,7 +9534,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="165"/>
+      <c r="I28" s="112"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -9393,7 +9547,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="165"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -9406,7 +9560,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="165"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -9419,7 +9573,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="165"/>
+      <c r="I31" s="112"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -9432,7 +9586,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="165"/>
+      <c r="I32" s="112"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -9445,7 +9599,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="165"/>
+      <c r="I33" s="112"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -9456,7 +9610,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="165"/>
+      <c r="I34" s="112"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -9467,7 +9621,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="165"/>
+      <c r="I35" s="112"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -9478,7 +9632,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="165"/>
+      <c r="I36" s="112"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -9489,7 +9643,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="165"/>
+      <c r="I37" s="112"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -9500,7 +9654,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="165"/>
+      <c r="I38" s="112"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -9511,7 +9665,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="165"/>
+      <c r="I39" s="112"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -9522,7 +9676,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="165"/>
+      <c r="I40" s="112"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -9533,7 +9687,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="165"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -9544,7 +9698,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="165"/>
+      <c r="I42" s="112"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -9555,7 +9709,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="165"/>
+      <c r="I43" s="112"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -9566,7 +9720,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="165"/>
+      <c r="I44" s="112"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -9577,7 +9731,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="165"/>
+      <c r="I45" s="112"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -9588,7 +9742,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="165"/>
+      <c r="I46" s="112"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -9599,7 +9753,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="165"/>
+      <c r="I47" s="112"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -9610,7 +9764,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="165"/>
+      <c r="I48" s="112"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -9621,7 +9775,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="165"/>
+      <c r="I49" s="112"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -9632,7 +9786,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="165"/>
+      <c r="I50" s="112"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -9643,7 +9797,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="165"/>
+      <c r="I51" s="112"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -9654,7 +9808,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="165"/>
+      <c r="I52" s="112"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -9665,7 +9819,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="165"/>
+      <c r="I53" s="112"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -9676,7 +9830,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="165"/>
+      <c r="I54" s="112"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -9687,7 +9841,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="165"/>
+      <c r="I55" s="112"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -9698,7 +9852,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="165"/>
+      <c r="I56" s="112"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -9709,7 +9863,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="165"/>
+      <c r="I57" s="112"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -9720,7 +9874,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="165"/>
+      <c r="I58" s="112"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -9731,7 +9885,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="165"/>
+      <c r="I59" s="112"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -9742,7 +9896,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="165"/>
+      <c r="I60" s="112"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -9753,7 +9907,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="165"/>
+      <c r="I61" s="112"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -9764,7 +9918,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="165"/>
+      <c r="I62" s="112"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -9775,7 +9929,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="165"/>
+      <c r="I63" s="112"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -9786,7 +9940,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="165"/>
+      <c r="I64" s="112"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -9797,7 +9951,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="165"/>
+      <c r="I65" s="112"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -9808,7 +9962,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="165"/>
+      <c r="I66" s="112"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -9819,7 +9973,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="165"/>
+      <c r="I67" s="112"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -9830,7 +9984,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="165"/>
+      <c r="I68" s="112"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -9841,7 +9995,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="165"/>
+      <c r="I69" s="112"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -9852,7 +10006,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="165"/>
+      <c r="I70" s="112"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -9863,7 +10017,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="165"/>
+      <c r="I71" s="112"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -9874,7 +10028,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="165"/>
+      <c r="I72" s="112"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -9885,7 +10039,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="165"/>
+      <c r="I73" s="112"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -9896,7 +10050,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="165"/>
+      <c r="I74" s="112"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -9907,7 +10061,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="165"/>
+      <c r="I75" s="112"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -9918,7 +10072,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="165"/>
+      <c r="I76" s="112"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -9929,7 +10083,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="165"/>
+      <c r="I77" s="112"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -9940,7 +10094,7 @@
       <c r="F78" s="18"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="165"/>
+      <c r="I78" s="112"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -9951,7 +10105,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="165"/>
+      <c r="I79" s="112"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -9962,7 +10116,7 @@
       <c r="F80" s="18"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="165"/>
+      <c r="I80" s="112"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -9973,7 +10127,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="165"/>
+      <c r="I81" s="112"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -9984,7 +10138,7 @@
       <c r="F82" s="18"/>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="165"/>
+      <c r="I82" s="112"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -9995,7 +10149,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="165"/>
+      <c r="I83" s="112"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -10006,7 +10160,7 @@
       <c r="F84" s="18"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="165"/>
+      <c r="I84" s="112"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -10017,7 +10171,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="165"/>
+      <c r="I85" s="112"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -10028,7 +10182,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="165"/>
+      <c r="I86" s="112"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -10039,7 +10193,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="165"/>
+      <c r="I87" s="112"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -10050,7 +10204,7 @@
       <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="165"/>
+      <c r="I88" s="112"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -10061,7 +10215,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="165"/>
+      <c r="I89" s="112"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -10072,7 +10226,7 @@
       <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="165"/>
+      <c r="I90" s="112"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -10083,7 +10237,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="165"/>
+      <c r="I91" s="112"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -10094,7 +10248,7 @@
       <c r="F92" s="18"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="165"/>
+      <c r="I92" s="112"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -10105,7 +10259,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="165"/>
+      <c r="I93" s="112"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -10116,7 +10270,7 @@
       <c r="F94" s="18"/>
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="165"/>
+      <c r="I94" s="112"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -10127,7 +10281,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="165"/>
+      <c r="I95" s="112"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -10138,7 +10292,7 @@
       <c r="F96" s="18"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="165"/>
+      <c r="I96" s="112"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -10149,7 +10303,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="165"/>
+      <c r="I97" s="112"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -10160,7 +10314,7 @@
       <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="165"/>
+      <c r="I98" s="112"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -10171,7 +10325,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="165"/>
+      <c r="I99" s="112"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -10182,7 +10336,7 @@
       <c r="F100" s="18"/>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="165"/>
+      <c r="I100" s="112"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -10193,7 +10347,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="165"/>
+      <c r="I101" s="112"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -10204,7 +10358,7 @@
       <c r="F102" s="18"/>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="165"/>
+      <c r="I102" s="112"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -10215,7 +10369,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="165"/>
+      <c r="I103" s="112"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -10226,7 +10380,7 @@
       <c r="F104" s="18"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="165"/>
+      <c r="I104" s="112"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -10237,7 +10391,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="165"/>
+      <c r="I105" s="112"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -10248,7 +10402,7 @@
       <c r="F106" s="18"/>
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="165"/>
+      <c r="I106" s="112"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -10259,7 +10413,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="165"/>
+      <c r="I107" s="112"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -10270,7 +10424,7 @@
       <c r="F108" s="18"/>
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="165"/>
+      <c r="I108" s="112"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -10281,7 +10435,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="165"/>
+      <c r="I109" s="112"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -10292,7 +10446,7 @@
       <c r="F110" s="18"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="165"/>
+      <c r="I110" s="112"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -10303,7 +10457,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="165"/>
+      <c r="I111" s="112"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -10314,7 +10468,7 @@
       <c r="F112" s="18"/>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="165"/>
+      <c r="I112" s="112"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -10325,7 +10479,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="165"/>
+      <c r="I113" s="112"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -10336,7 +10490,7 @@
       <c r="F114" s="18"/>
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="165"/>
+      <c r="I114" s="112"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -10347,7 +10501,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="165"/>
+      <c r="I115" s="112"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
@@ -10358,7 +10512,7 @@
       <c r="F116" s="18"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="165"/>
+      <c r="I116" s="112"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -10369,7 +10523,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="165"/>
+      <c r="I117" s="112"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
@@ -10380,7 +10534,7 @@
       <c r="F118" s="18"/>
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="165"/>
+      <c r="I118" s="112"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -10391,7 +10545,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="165"/>
+      <c r="I119" s="112"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
@@ -10402,7 +10556,7 @@
       <c r="F120" s="18"/>
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="165"/>
+      <c r="I120" s="112"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
@@ -10413,7 +10567,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="165"/>
+      <c r="I121" s="112"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -10424,7 +10578,7 @@
       <c r="F122" s="18"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="165"/>
+      <c r="I122" s="112"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
@@ -10435,7 +10589,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="165"/>
+      <c r="I123" s="112"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
@@ -10446,7 +10600,7 @@
       <c r="F124" s="18"/>
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="165"/>
+      <c r="I124" s="112"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
@@ -10457,7 +10611,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="165"/>
+      <c r="I125" s="112"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
@@ -10468,7 +10622,7 @@
       <c r="F126" s="18"/>
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="165"/>
+      <c r="I126" s="112"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -10479,7 +10633,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="165"/>
+      <c r="I127" s="112"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
@@ -10490,7 +10644,7 @@
       <c r="F128" s="18"/>
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="165"/>
+      <c r="I128" s="112"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
@@ -10501,7 +10655,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="165"/>
+      <c r="I129" s="112"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
@@ -10512,7 +10666,7 @@
       <c r="F130" s="18"/>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="165"/>
+      <c r="I130" s="112"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
@@ -10523,7 +10677,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="165"/>
+      <c r="I131" s="112"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
@@ -10534,7 +10688,7 @@
       <c r="F132" s="18"/>
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="165"/>
+      <c r="I132" s="112"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
@@ -10545,7 +10699,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="165"/>
+      <c r="I133" s="112"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
@@ -10556,7 +10710,7 @@
       <c r="F134" s="18"/>
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="165"/>
+      <c r="I134" s="112"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
@@ -10567,7 +10721,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="165"/>
+      <c r="I135" s="112"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
@@ -10578,7 +10732,7 @@
       <c r="F136" s="18"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="165"/>
+      <c r="I136" s="112"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
@@ -10589,7 +10743,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="165"/>
+      <c r="I137" s="112"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
@@ -10600,7 +10754,7 @@
       <c r="F138" s="18"/>
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="165"/>
+      <c r="I138" s="112"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
@@ -10611,7 +10765,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="165"/>
+      <c r="I139" s="112"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
@@ -10622,7 +10776,7 @@
       <c r="F140" s="18"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="165"/>
+      <c r="I140" s="112"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
@@ -10633,7 +10787,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="165"/>
+      <c r="I141" s="112"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
@@ -10644,7 +10798,7 @@
       <c r="F142" s="18"/>
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="165"/>
+      <c r="I142" s="112"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
@@ -10655,7 +10809,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="165"/>
+      <c r="I143" s="112"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
@@ -10666,7 +10820,7 @@
       <c r="F144" s="18"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="165"/>
+      <c r="I144" s="112"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
@@ -10677,7 +10831,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="165"/>
+      <c r="I145" s="112"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
@@ -10688,7 +10842,7 @@
       <c r="F146" s="18"/>
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="165"/>
+      <c r="I146" s="112"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
@@ -10699,7 +10853,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="165"/>
+      <c r="I147" s="112"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
@@ -10710,7 +10864,7 @@
       <c r="F148" s="18"/>
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="165"/>
+      <c r="I148" s="112"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
@@ -10721,7 +10875,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="165"/>
+      <c r="I149" s="112"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
@@ -10732,7 +10886,7 @@
       <c r="F150" s="18"/>
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="165"/>
+      <c r="I150" s="112"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
@@ -10743,7 +10897,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="165"/>
+      <c r="I151" s="112"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
@@ -10754,7 +10908,7 @@
       <c r="F152" s="18"/>
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="165"/>
+      <c r="I152" s="112"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
@@ -10765,7 +10919,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="165"/>
+      <c r="I153" s="112"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
@@ -10776,7 +10930,7 @@
       <c r="F154" s="18"/>
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="165"/>
+      <c r="I154" s="112"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
@@ -10787,7 +10941,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="165"/>
+      <c r="I155" s="112"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
@@ -10798,7 +10952,7 @@
       <c r="F156" s="18"/>
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="165"/>
+      <c r="I156" s="112"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
@@ -10809,7 +10963,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="165"/>
+      <c r="I157" s="112"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
@@ -10820,7 +10974,7 @@
       <c r="F158" s="18"/>
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="165"/>
+      <c r="I158" s="112"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
@@ -10831,7 +10985,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="165"/>
+      <c r="I159" s="112"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -10842,7 +10996,7 @@
       <c r="F160" s="18"/>
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="165"/>
+      <c r="I160" s="112"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
@@ -10853,7 +11007,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="165"/>
+      <c r="I161" s="112"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
@@ -10864,7 +11018,7 @@
       <c r="F162" s="18"/>
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="165"/>
+      <c r="I162" s="112"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
@@ -10875,7 +11029,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="165"/>
+      <c r="I163" s="112"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
@@ -10886,7 +11040,7 @@
       <c r="F164" s="18"/>
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="165"/>
+      <c r="I164" s="112"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10897,7 +11051,7 @@
       <c r="F165" s="38"/>
       <c r="G165" s="7"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="125"/>
+      <c r="I165" s="91"/>
       <c r="J165" s="9"/>
     </row>
   </sheetData>
@@ -10908,12 +11062,11 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="J4:J6"/>
@@ -10923,11 +11076,12 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10954,29 +11108,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -10995,7 +11149,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -12804,18 +12958,18 @@
   </sheetPr>
   <dimension ref="B1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="89" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="60" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="89" customWidth="1"/>
-    <col min="10" max="10" width="97.28515625" style="89" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="60" customWidth="1"/>
+    <col min="10" max="10" width="97.28515625" style="60" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -12825,29 +12979,29 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -12866,13 +13020,13 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="134" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="36" t="s">
@@ -12884,22 +13038,22 @@
       <c r="F4" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="170" t="s">
+      <c r="I4" s="173" t="s">
         <v>181</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="126" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="7" t="s">
         <v>176</v>
       </c>
@@ -12909,186 +13063,186 @@
       <c r="F5" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="64"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="127"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="171" t="s">
+      <c r="I6" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="126" t="s">
+      <c r="J6" s="171" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="97" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="177"/>
-      <c r="J7" s="66"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="127"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="172"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="130" t="s">
+      <c r="E9" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="131" t="s">
+      <c r="F9" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="132" t="s">
+      <c r="G9" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="162" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="135" t="s">
+      <c r="J9" s="151" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="137" t="s">
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="138" t="s">
+      <c r="E10" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="139" t="s">
+      <c r="F10" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="140"/>
-      <c r="H10" s="141"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="163"/>
       <c r="I10" s="179"/>
-      <c r="J10" s="143"/>
+      <c r="J10" s="152"/>
     </row>
     <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145" t="s">
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="164"/>
       <c r="I11" s="180"/>
-      <c r="J11" s="151"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="171" t="s">
+      <c r="I12" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="171" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="97" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
       <c r="I13" s="177"/>
-      <c r="J13" s="66"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="51" t="s">
         <v>7</v>
       </c>
@@ -13098,49 +13252,67 @@
       <c r="F14" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="169"/>
       <c r="I14" s="177"/>
-      <c r="J14" s="66"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104" t="s">
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="127"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="165"/>
-      <c r="J16" s="110"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="172"/>
+    </row>
+    <row r="16" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="110"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="182"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -13150,8 +13322,8 @@
       <c r="F18" s="18"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="110"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -13161,8 +13333,8 @@
       <c r="F19" s="18"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="110"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -13172,8 +13344,8 @@
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="110"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -13183,8 +13355,8 @@
       <c r="F21" s="18"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="110"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -13194,8 +13366,8 @@
       <c r="F22" s="18"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="110"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="76"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
@@ -13205,8 +13377,8 @@
       <c r="F23" s="18"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="110"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -13216,8 +13388,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="110"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -13227,8 +13399,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="110"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="76"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
@@ -13238,8 +13410,8 @@
       <c r="F26" s="18"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="165"/>
-      <c r="J26" s="110"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="76"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -13249,8 +13421,8 @@
       <c r="F27" s="18"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="165"/>
-      <c r="J27" s="110"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="76"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -13260,8 +13432,8 @@
       <c r="F28" s="18"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="110"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="76"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -13271,8 +13443,8 @@
       <c r="F29" s="18"/>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="110"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="76"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -13282,8 +13454,8 @@
       <c r="F30" s="18"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="110"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -13293,8 +13465,8 @@
       <c r="F31" s="18"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="165"/>
-      <c r="J31" s="110"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="76"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -13304,8 +13476,8 @@
       <c r="F32" s="18"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="110"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="76"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -13315,8 +13487,8 @@
       <c r="F33" s="18"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="165"/>
-      <c r="J33" s="110"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="76"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -13326,8 +13498,8 @@
       <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="110"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="76"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -13337,8 +13509,8 @@
       <c r="F35" s="18"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="110"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="76"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -13348,8 +13520,8 @@
       <c r="F36" s="18"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="110"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="76"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -13359,8 +13531,8 @@
       <c r="F37" s="18"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="110"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="76"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -13370,8 +13542,8 @@
       <c r="F38" s="18"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="110"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="76"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -13381,8 +13553,8 @@
       <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="110"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -13392,8 +13564,8 @@
       <c r="F40" s="18"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="110"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="76"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
@@ -13403,8 +13575,8 @@
       <c r="F41" s="18"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="165"/>
-      <c r="J41" s="110"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="76"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
@@ -13414,8 +13586,8 @@
       <c r="F42" s="18"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="110"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="76"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -13425,8 +13597,8 @@
       <c r="F43" s="18"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="110"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="76"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
@@ -13436,8 +13608,8 @@
       <c r="F44" s="18"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="110"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="76"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
@@ -13447,8 +13619,8 @@
       <c r="F45" s="18"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="110"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="76"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -13458,8 +13630,8 @@
       <c r="F46" s="18"/>
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="110"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="76"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -13469,8 +13641,8 @@
       <c r="F47" s="18"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="165"/>
-      <c r="J47" s="110"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="76"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
@@ -13480,8 +13652,8 @@
       <c r="F48" s="18"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="165"/>
-      <c r="J48" s="110"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="76"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
@@ -13491,8 +13663,8 @@
       <c r="F49" s="18"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="110"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="76"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -13502,8 +13674,8 @@
       <c r="F50" s="18"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="165"/>
-      <c r="J50" s="110"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="76"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -13513,8 +13685,8 @@
       <c r="F51" s="18"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="110"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="76"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
@@ -13524,8 +13696,8 @@
       <c r="F52" s="18"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="110"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="76"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
@@ -13535,8 +13707,8 @@
       <c r="F53" s="18"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="110"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="76"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
@@ -13546,8 +13718,8 @@
       <c r="F54" s="18"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="110"/>
+      <c r="I54" s="112"/>
+      <c r="J54" s="76"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
@@ -13557,8 +13729,8 @@
       <c r="F55" s="18"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="110"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="76"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
@@ -13568,8 +13740,8 @@
       <c r="F56" s="18"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="110"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="76"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
@@ -13579,8 +13751,8 @@
       <c r="F57" s="18"/>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="110"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="76"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
@@ -13590,8 +13762,8 @@
       <c r="F58" s="18"/>
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="110"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="76"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
@@ -13601,8 +13773,8 @@
       <c r="F59" s="18"/>
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="110"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="76"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
@@ -13612,8 +13784,8 @@
       <c r="F60" s="18"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="110"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="76"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
@@ -13623,8 +13795,8 @@
       <c r="F61" s="18"/>
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="110"/>
+      <c r="I61" s="112"/>
+      <c r="J61" s="76"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
@@ -13634,8 +13806,8 @@
       <c r="F62" s="18"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="110"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="76"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
@@ -13645,8 +13817,8 @@
       <c r="F63" s="18"/>
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="110"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="76"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
@@ -13656,8 +13828,8 @@
       <c r="F64" s="18"/>
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="110"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="76"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
@@ -13667,8 +13839,8 @@
       <c r="F65" s="18"/>
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="110"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="76"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -13678,8 +13850,8 @@
       <c r="F66" s="18"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="110"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="76"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -13689,8 +13861,8 @@
       <c r="F67" s="18"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="110"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="76"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
@@ -13700,8 +13872,8 @@
       <c r="F68" s="18"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="110"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="76"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
@@ -13711,8 +13883,8 @@
       <c r="F69" s="18"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="110"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="76"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
@@ -13722,8 +13894,8 @@
       <c r="F70" s="18"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="165"/>
-      <c r="J70" s="110"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="76"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
@@ -13733,8 +13905,8 @@
       <c r="F71" s="18"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="110"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="76"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
@@ -13744,8 +13916,8 @@
       <c r="F72" s="18"/>
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="165"/>
-      <c r="J72" s="110"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="76"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
@@ -13755,8 +13927,8 @@
       <c r="F73" s="18"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="165"/>
-      <c r="J73" s="110"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="76"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
@@ -13766,8 +13938,8 @@
       <c r="F74" s="18"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="165"/>
-      <c r="J74" s="110"/>
+      <c r="I74" s="112"/>
+      <c r="J74" s="76"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
@@ -13777,8 +13949,8 @@
       <c r="F75" s="18"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="165"/>
-      <c r="J75" s="110"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="76"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
@@ -13788,8 +13960,8 @@
       <c r="F76" s="18"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="165"/>
-      <c r="J76" s="110"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="76"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
@@ -13799,8 +13971,8 @@
       <c r="F77" s="18"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="165"/>
-      <c r="J77" s="110"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="76"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
@@ -13810,8 +13982,8 @@
       <c r="F78" s="18"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="165"/>
-      <c r="J78" s="110"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="76"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
@@ -13821,8 +13993,8 @@
       <c r="F79" s="18"/>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="165"/>
-      <c r="J79" s="110"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="76"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
@@ -13832,8 +14004,8 @@
       <c r="F80" s="18"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="165"/>
-      <c r="J80" s="110"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="76"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
@@ -13843,8 +14015,8 @@
       <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="110"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="76"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
@@ -13854,8 +14026,8 @@
       <c r="F82" s="18"/>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="110"/>
+      <c r="I82" s="112"/>
+      <c r="J82" s="76"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
@@ -13865,8 +14037,8 @@
       <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="110"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="76"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
@@ -13876,8 +14048,8 @@
       <c r="F84" s="18"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="165"/>
-      <c r="J84" s="110"/>
+      <c r="I84" s="112"/>
+      <c r="J84" s="76"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
@@ -13887,8 +14059,8 @@
       <c r="F85" s="18"/>
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="110"/>
+      <c r="I85" s="112"/>
+      <c r="J85" s="76"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
@@ -13898,8 +14070,8 @@
       <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="110"/>
+      <c r="I86" s="112"/>
+      <c r="J86" s="76"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
@@ -13909,8 +14081,8 @@
       <c r="F87" s="18"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="165"/>
-      <c r="J87" s="110"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="76"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
@@ -13920,8 +14092,8 @@
       <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="110"/>
+      <c r="I88" s="112"/>
+      <c r="J88" s="76"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
@@ -13931,8 +14103,8 @@
       <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="165"/>
-      <c r="J89" s="110"/>
+      <c r="I89" s="112"/>
+      <c r="J89" s="76"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
@@ -13942,8 +14114,8 @@
       <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="110"/>
+      <c r="I90" s="112"/>
+      <c r="J90" s="76"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
@@ -13953,8 +14125,8 @@
       <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="165"/>
-      <c r="J91" s="110"/>
+      <c r="I91" s="112"/>
+      <c r="J91" s="76"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
@@ -13964,8 +14136,8 @@
       <c r="F92" s="18"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="110"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="76"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
@@ -13975,8 +14147,8 @@
       <c r="F93" s="18"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="165"/>
-      <c r="J93" s="110"/>
+      <c r="I93" s="112"/>
+      <c r="J93" s="76"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
@@ -13986,8 +14158,8 @@
       <c r="F94" s="18"/>
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="165"/>
-      <c r="J94" s="110"/>
+      <c r="I94" s="112"/>
+      <c r="J94" s="76"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
@@ -13997,8 +14169,8 @@
       <c r="F95" s="18"/>
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="165"/>
-      <c r="J95" s="110"/>
+      <c r="I95" s="112"/>
+      <c r="J95" s="76"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
@@ -14008,8 +14180,8 @@
       <c r="F96" s="18"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="165"/>
-      <c r="J96" s="110"/>
+      <c r="I96" s="112"/>
+      <c r="J96" s="76"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
@@ -14019,8 +14191,8 @@
       <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="110"/>
+      <c r="I97" s="112"/>
+      <c r="J97" s="76"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
@@ -14030,8 +14202,8 @@
       <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="165"/>
-      <c r="J98" s="110"/>
+      <c r="I98" s="112"/>
+      <c r="J98" s="76"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
@@ -14041,8 +14213,8 @@
       <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="165"/>
-      <c r="J99" s="110"/>
+      <c r="I99" s="112"/>
+      <c r="J99" s="76"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
@@ -14052,8 +14224,8 @@
       <c r="F100" s="18"/>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="165"/>
-      <c r="J100" s="110"/>
+      <c r="I100" s="112"/>
+      <c r="J100" s="76"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
@@ -14063,8 +14235,8 @@
       <c r="F101" s="18"/>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="165"/>
-      <c r="J101" s="110"/>
+      <c r="I101" s="112"/>
+      <c r="J101" s="76"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
@@ -14074,8 +14246,8 @@
       <c r="F102" s="18"/>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="165"/>
-      <c r="J102" s="110"/>
+      <c r="I102" s="112"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
@@ -14085,8 +14257,8 @@
       <c r="F103" s="18"/>
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="165"/>
-      <c r="J103" s="110"/>
+      <c r="I103" s="112"/>
+      <c r="J103" s="76"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
@@ -14096,8 +14268,8 @@
       <c r="F104" s="18"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="110"/>
+      <c r="I104" s="112"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
@@ -14107,8 +14279,8 @@
       <c r="F105" s="18"/>
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="165"/>
-      <c r="J105" s="110"/>
+      <c r="I105" s="112"/>
+      <c r="J105" s="76"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
@@ -14118,8 +14290,8 @@
       <c r="F106" s="18"/>
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="165"/>
-      <c r="J106" s="110"/>
+      <c r="I106" s="112"/>
+      <c r="J106" s="76"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
@@ -14129,8 +14301,8 @@
       <c r="F107" s="18"/>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="165"/>
-      <c r="J107" s="110"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="76"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
@@ -14140,8 +14312,8 @@
       <c r="F108" s="18"/>
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="165"/>
-      <c r="J108" s="110"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="76"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
@@ -14151,8 +14323,8 @@
       <c r="F109" s="18"/>
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="165"/>
-      <c r="J109" s="110"/>
+      <c r="I109" s="112"/>
+      <c r="J109" s="76"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
@@ -14162,8 +14334,8 @@
       <c r="F110" s="18"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="165"/>
-      <c r="J110" s="110"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="76"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
@@ -14173,8 +14345,8 @@
       <c r="F111" s="18"/>
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="165"/>
-      <c r="J111" s="110"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="76"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
@@ -14184,8 +14356,8 @@
       <c r="F112" s="18"/>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="165"/>
-      <c r="J112" s="110"/>
+      <c r="I112" s="112"/>
+      <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
@@ -14195,8 +14367,8 @@
       <c r="F113" s="18"/>
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="165"/>
-      <c r="J113" s="110"/>
+      <c r="I113" s="112"/>
+      <c r="J113" s="76"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
@@ -14206,8 +14378,8 @@
       <c r="F114" s="18"/>
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="165"/>
-      <c r="J114" s="110"/>
+      <c r="I114" s="112"/>
+      <c r="J114" s="76"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
@@ -14217,8 +14389,8 @@
       <c r="F115" s="18"/>
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="165"/>
-      <c r="J115" s="110"/>
+      <c r="I115" s="112"/>
+      <c r="J115" s="76"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
@@ -14228,8 +14400,8 @@
       <c r="F116" s="18"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="165"/>
-      <c r="J116" s="110"/>
+      <c r="I116" s="112"/>
+      <c r="J116" s="76"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
@@ -14239,8 +14411,8 @@
       <c r="F117" s="18"/>
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="165"/>
-      <c r="J117" s="110"/>
+      <c r="I117" s="112"/>
+      <c r="J117" s="76"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
@@ -14250,8 +14422,8 @@
       <c r="F118" s="18"/>
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="165"/>
-      <c r="J118" s="110"/>
+      <c r="I118" s="112"/>
+      <c r="J118" s="76"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
@@ -14261,8 +14433,8 @@
       <c r="F119" s="18"/>
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="165"/>
-      <c r="J119" s="110"/>
+      <c r="I119" s="112"/>
+      <c r="J119" s="76"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
@@ -14272,8 +14444,8 @@
       <c r="F120" s="18"/>
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="165"/>
-      <c r="J120" s="110"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="76"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
@@ -14283,8 +14455,8 @@
       <c r="F121" s="18"/>
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="165"/>
-      <c r="J121" s="110"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="76"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
@@ -14294,8 +14466,8 @@
       <c r="F122" s="18"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="165"/>
-      <c r="J122" s="110"/>
+      <c r="I122" s="112"/>
+      <c r="J122" s="76"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
@@ -14305,8 +14477,8 @@
       <c r="F123" s="18"/>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="165"/>
-      <c r="J123" s="110"/>
+      <c r="I123" s="112"/>
+      <c r="J123" s="76"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
@@ -14316,8 +14488,8 @@
       <c r="F124" s="18"/>
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="165"/>
-      <c r="J124" s="110"/>
+      <c r="I124" s="112"/>
+      <c r="J124" s="76"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
@@ -14327,8 +14499,8 @@
       <c r="F125" s="18"/>
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="165"/>
-      <c r="J125" s="110"/>
+      <c r="I125" s="112"/>
+      <c r="J125" s="76"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
@@ -14338,8 +14510,8 @@
       <c r="F126" s="18"/>
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="165"/>
-      <c r="J126" s="110"/>
+      <c r="I126" s="112"/>
+      <c r="J126" s="76"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
@@ -14349,8 +14521,8 @@
       <c r="F127" s="18"/>
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="165"/>
-      <c r="J127" s="110"/>
+      <c r="I127" s="112"/>
+      <c r="J127" s="76"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
@@ -14360,8 +14532,8 @@
       <c r="F128" s="18"/>
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="165"/>
-      <c r="J128" s="110"/>
+      <c r="I128" s="112"/>
+      <c r="J128" s="76"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
@@ -14371,8 +14543,8 @@
       <c r="F129" s="18"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="165"/>
-      <c r="J129" s="110"/>
+      <c r="I129" s="112"/>
+      <c r="J129" s="76"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
@@ -14382,8 +14554,8 @@
       <c r="F130" s="18"/>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="165"/>
-      <c r="J130" s="110"/>
+      <c r="I130" s="112"/>
+      <c r="J130" s="76"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
@@ -14393,8 +14565,8 @@
       <c r="F131" s="18"/>
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="165"/>
-      <c r="J131" s="110"/>
+      <c r="I131" s="112"/>
+      <c r="J131" s="76"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
@@ -14404,8 +14576,8 @@
       <c r="F132" s="18"/>
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="165"/>
-      <c r="J132" s="110"/>
+      <c r="I132" s="112"/>
+      <c r="J132" s="76"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
@@ -14415,8 +14587,8 @@
       <c r="F133" s="18"/>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="165"/>
-      <c r="J133" s="110"/>
+      <c r="I133" s="112"/>
+      <c r="J133" s="76"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
@@ -14426,8 +14598,8 @@
       <c r="F134" s="18"/>
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="165"/>
-      <c r="J134" s="110"/>
+      <c r="I134" s="112"/>
+      <c r="J134" s="76"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
@@ -14437,8 +14609,8 @@
       <c r="F135" s="18"/>
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="165"/>
-      <c r="J135" s="110"/>
+      <c r="I135" s="112"/>
+      <c r="J135" s="76"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
@@ -14448,8 +14620,8 @@
       <c r="F136" s="18"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="165"/>
-      <c r="J136" s="110"/>
+      <c r="I136" s="112"/>
+      <c r="J136" s="76"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
@@ -14459,8 +14631,8 @@
       <c r="F137" s="18"/>
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="165"/>
-      <c r="J137" s="110"/>
+      <c r="I137" s="112"/>
+      <c r="J137" s="76"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
@@ -14470,8 +14642,8 @@
       <c r="F138" s="18"/>
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="165"/>
-      <c r="J138" s="110"/>
+      <c r="I138" s="112"/>
+      <c r="J138" s="76"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
@@ -14481,8 +14653,8 @@
       <c r="F139" s="18"/>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="165"/>
-      <c r="J139" s="110"/>
+      <c r="I139" s="112"/>
+      <c r="J139" s="76"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
@@ -14492,8 +14664,8 @@
       <c r="F140" s="18"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="165"/>
-      <c r="J140" s="110"/>
+      <c r="I140" s="112"/>
+      <c r="J140" s="76"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
@@ -14503,8 +14675,8 @@
       <c r="F141" s="18"/>
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="165"/>
-      <c r="J141" s="110"/>
+      <c r="I141" s="112"/>
+      <c r="J141" s="76"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
@@ -14514,8 +14686,8 @@
       <c r="F142" s="18"/>
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="165"/>
-      <c r="J142" s="110"/>
+      <c r="I142" s="112"/>
+      <c r="J142" s="76"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
@@ -14525,8 +14697,8 @@
       <c r="F143" s="18"/>
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="165"/>
-      <c r="J143" s="110"/>
+      <c r="I143" s="112"/>
+      <c r="J143" s="76"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
@@ -14536,8 +14708,8 @@
       <c r="F144" s="18"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="165"/>
-      <c r="J144" s="110"/>
+      <c r="I144" s="112"/>
+      <c r="J144" s="76"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
@@ -14547,8 +14719,8 @@
       <c r="F145" s="18"/>
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="165"/>
-      <c r="J145" s="110"/>
+      <c r="I145" s="112"/>
+      <c r="J145" s="76"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
@@ -14558,8 +14730,8 @@
       <c r="F146" s="18"/>
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="165"/>
-      <c r="J146" s="110"/>
+      <c r="I146" s="112"/>
+      <c r="J146" s="76"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
@@ -14569,8 +14741,8 @@
       <c r="F147" s="18"/>
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="165"/>
-      <c r="J147" s="110"/>
+      <c r="I147" s="112"/>
+      <c r="J147" s="76"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
@@ -14580,8 +14752,8 @@
       <c r="F148" s="18"/>
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="165"/>
-      <c r="J148" s="110"/>
+      <c r="I148" s="112"/>
+      <c r="J148" s="76"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
@@ -14591,8 +14763,8 @@
       <c r="F149" s="18"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="165"/>
-      <c r="J149" s="110"/>
+      <c r="I149" s="112"/>
+      <c r="J149" s="76"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
@@ -14602,8 +14774,8 @@
       <c r="F150" s="18"/>
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="165"/>
-      <c r="J150" s="110"/>
+      <c r="I150" s="112"/>
+      <c r="J150" s="76"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
@@ -14613,8 +14785,8 @@
       <c r="F151" s="18"/>
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="165"/>
-      <c r="J151" s="110"/>
+      <c r="I151" s="112"/>
+      <c r="J151" s="76"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
@@ -14624,8 +14796,8 @@
       <c r="F152" s="18"/>
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="165"/>
-      <c r="J152" s="110"/>
+      <c r="I152" s="112"/>
+      <c r="J152" s="76"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
@@ -14635,8 +14807,8 @@
       <c r="F153" s="18"/>
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="165"/>
-      <c r="J153" s="110"/>
+      <c r="I153" s="112"/>
+      <c r="J153" s="76"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
@@ -14646,8 +14818,8 @@
       <c r="F154" s="18"/>
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="165"/>
-      <c r="J154" s="110"/>
+      <c r="I154" s="112"/>
+      <c r="J154" s="76"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
@@ -14657,8 +14829,8 @@
       <c r="F155" s="18"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="165"/>
-      <c r="J155" s="110"/>
+      <c r="I155" s="112"/>
+      <c r="J155" s="76"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
@@ -14668,8 +14840,8 @@
       <c r="F156" s="18"/>
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="165"/>
-      <c r="J156" s="110"/>
+      <c r="I156" s="112"/>
+      <c r="J156" s="76"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
@@ -14679,8 +14851,8 @@
       <c r="F157" s="18"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="165"/>
-      <c r="J157" s="110"/>
+      <c r="I157" s="112"/>
+      <c r="J157" s="76"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
@@ -14690,8 +14862,8 @@
       <c r="F158" s="18"/>
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="165"/>
-      <c r="J158" s="110"/>
+      <c r="I158" s="112"/>
+      <c r="J158" s="76"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
@@ -14701,8 +14873,8 @@
       <c r="F159" s="18"/>
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="165"/>
-      <c r="J159" s="110"/>
+      <c r="I159" s="112"/>
+      <c r="J159" s="76"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
@@ -14712,8 +14884,8 @@
       <c r="F160" s="18"/>
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="165"/>
-      <c r="J160" s="110"/>
+      <c r="I160" s="112"/>
+      <c r="J160" s="76"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
@@ -14723,8 +14895,8 @@
       <c r="F161" s="18"/>
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="165"/>
-      <c r="J161" s="110"/>
+      <c r="I161" s="112"/>
+      <c r="J161" s="76"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
@@ -14734,8 +14906,8 @@
       <c r="F162" s="18"/>
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="165"/>
-      <c r="J162" s="110"/>
+      <c r="I162" s="112"/>
+      <c r="J162" s="76"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
@@ -14745,8 +14917,8 @@
       <c r="F163" s="18"/>
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="165"/>
-      <c r="J163" s="110"/>
+      <c r="I163" s="112"/>
+      <c r="J163" s="76"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
@@ -14756,8 +14928,8 @@
       <c r="F164" s="18"/>
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="165"/>
-      <c r="J164" s="110"/>
+      <c r="I164" s="112"/>
+      <c r="J164" s="76"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
@@ -14767,8 +14939,8 @@
       <c r="F165" s="18"/>
       <c r="G165" s="3"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="165"/>
-      <c r="J165" s="110"/>
+      <c r="I165" s="112"/>
+      <c r="J165" s="76"/>
     </row>
     <row r="166" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="6"/>
@@ -14778,8 +14950,8 @@
       <c r="F166" s="38"/>
       <c r="G166" s="7"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="125"/>
-      <c r="J166" s="176"/>
+      <c r="I166" s="91"/>
+      <c r="J166" s="119"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:J3" xr:uid="{A0663F6C-9AF6-4F46-95AF-C630DE6E8D47}">
@@ -14789,6 +14961,23 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
@@ -14801,23 +14990,6 @@
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14841,29 +15013,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="82" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86" t="s">
+      <c r="H2" s="123"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -14882,7 +15054,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="87"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>

--- a/DIRECTORIO_FUNCIONES.xlsx
+++ b/DIRECTORIO_FUNCIONES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InSync\Producto-Desarrollo-Herramientas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InSync\GitHub\Producto-Desarrollo-Herramientas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E279F-4DF1-44B3-BDA9-D46F609E423D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137DFBF-2C38-411C-86CC-7F8DDC07AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="WINDOWS" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="333">
   <si>
     <t>Nombre</t>
   </si>
@@ -1024,6 +1024,33 @@
   </si>
   <si>
     <t>Indicador del nodo a devolver: 1 inicial y 2 final</t>
+  </si>
+  <si>
+    <t>initialDirectory</t>
+  </si>
+  <si>
+    <t>Última ruta abierta. Útil si estás haciendo varias selecciones y no quieres tener que volver siempre a la misma carpeta. Es necesario meter una variable en el programa para darla como input. Por default está en el escritorio si no se da nada.</t>
+  </si>
+  <si>
+    <t>AddSAPReactionsHeader</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>PasteRange</t>
+  </si>
+  <si>
+    <t>Excel al que aplicar el formato</t>
+  </si>
+  <si>
+    <t>Hoja del excel en la que aplicar el formato</t>
+  </si>
+  <si>
+    <t>Primera celda en la que aplicar el formato (celda de arriba la izquierda)</t>
+  </si>
+  <si>
+    <t>Dar formato de encabezado de las tablas de reacciones que saca SAP2000 a un excel que queramos en un rango dado. Solo pone el formato, no el texto.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1833,11 +1860,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,9 +1986,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2197,6 +2232,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2386,22 +2451,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2749,7 +2811,7 @@
   <dimension ref="B1:J170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,29 +2826,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -2805,7 +2867,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
@@ -2814,43 +2876,43 @@
       <c r="C4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="194" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>15</v>
+      <c r="D5" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="196" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>325</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>7</v>
@@ -2858,36 +2920,36 @@
       <c r="H5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="43" t="s">
         <v>53</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>15</v>
+      <c r="D6" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="193" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="195" t="s">
+        <v>325</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="34" t="s">
@@ -2895,28 +2957,28 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="42" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="28" t="s">
@@ -2924,37 +2986,37 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="136" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="131" t="s">
+      <c r="H8" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="136" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
       <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
@@ -2964,10 +3026,10 @@
       <c r="F9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="128"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
@@ -4771,7 +4833,7 @@
   </sheetPr>
   <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -4781,9 +4843,9 @@
     <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="58" customWidth="1"/>
+    <col min="6" max="6" width="24" style="57" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="57" customWidth="1"/>
     <col min="10" max="10" width="97.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -4793,29 +4855,29 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -4834,7 +4896,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
@@ -4858,36 +4920,36 @@
       <c r="H4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="116" t="s">
+      <c r="I5" s="115" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="25" t="s">
@@ -4895,37 +4957,37 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="144" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="143" t="s">
+      <c r="I6" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="144" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
@@ -4935,34 +4997,34 @@
       <c r="F7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="136"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="145"/>
     </row>
     <row r="8" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>71</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="116" t="s">
+      <c r="I8" s="115" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="28" t="s">
@@ -4970,37 +5032,37 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="144" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="131" t="s">
+      <c r="H9" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="127" t="s">
+      <c r="J9" s="136" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5010,14 +5072,14 @@
       <c r="F10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="152"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="158"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="167"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
@@ -5027,89 +5089,89 @@
       <c r="F11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="128"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="159" t="s">
+      <c r="J12" s="168" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="49" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="159"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="144" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="131" t="s">
+      <c r="H14" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="143" t="s">
+      <c r="I14" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="127" t="s">
+      <c r="J14" s="136" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
@@ -5119,56 +5181,56 @@
       <c r="F15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="128"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="137" t="s">
+      <c r="G16" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="139" t="s">
+      <c r="H16" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="141" t="s">
+      <c r="I16" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="146" t="s">
+      <c r="J16" s="155" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="68" t="s">
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="138"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="148"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="157"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
@@ -5192,91 +5254,91 @@
       <c r="H18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="146" t="s">
+      <c r="C19" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="137" t="s">
+      <c r="G19" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="139" t="s">
+      <c r="H19" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="141" t="s">
+      <c r="I19" s="150" t="s">
         <v>201</v>
       </c>
-      <c r="J19" s="146" t="s">
+      <c r="J19" s="155" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="68" t="s">
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G20" s="138"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="148"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="157"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="144" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="131" t="s">
+      <c r="H21" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="143" t="s">
+      <c r="I21" s="152" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="127" t="s">
+      <c r="J21" s="136" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="157"/>
-      <c r="C22" s="136"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
@@ -5286,89 +5348,89 @@
       <c r="F22" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="128"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="137"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="146" t="s">
+      <c r="B23" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="146" t="s">
+      <c r="C23" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="137" t="s">
+      <c r="G23" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="H23" s="139" t="s">
+      <c r="H23" s="148" t="s">
         <v>222</v>
       </c>
-      <c r="I23" s="141" t="s">
+      <c r="I23" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="155" t="s">
+      <c r="J23" s="164" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="68" t="s">
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="138"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="156"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="144" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="144" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="129" t="s">
+      <c r="G25" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="140" t="s">
         <v>233</v>
       </c>
-      <c r="I25" s="143" t="s">
+      <c r="I25" s="152" t="s">
         <v>234</v>
       </c>
-      <c r="J25" s="127" t="s">
+      <c r="J25" s="136" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
@@ -5378,14 +5440,14 @@
       <c r="F26" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="145"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="154"/>
     </row>
     <row r="27" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
       <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
@@ -5395,14 +5457,14 @@
       <c r="F27" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="145"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="154"/>
     </row>
     <row r="28" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
       <c r="D28" s="7" t="s">
         <v>230</v>
       </c>
@@ -5412,106 +5474,106 @@
       <c r="F28" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="136"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="145"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="146" t="s">
+      <c r="B29" s="155" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="64" t="s">
+      <c r="F29" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="137" t="s">
+      <c r="G29" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="139" t="s">
+      <c r="H29" s="148" t="s">
         <v>240</v>
       </c>
-      <c r="I29" s="141" t="s">
+      <c r="I29" s="150" t="s">
         <v>241</v>
       </c>
-      <c r="J29" s="146" t="s">
+      <c r="J29" s="155" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="147"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="65" t="s">
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="149"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="147"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="68" t="s">
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="70" t="s">
+      <c r="F31" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="138"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="148"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="144" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="144" t="s">
         <v>212</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="129" t="s">
+      <c r="G32" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="143" t="s">
+      <c r="I32" s="152" t="s">
         <v>246</v>
       </c>
-      <c r="J32" s="135" t="s">
+      <c r="J32" s="144" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="7" t="s">
         <v>230</v>
       </c>
@@ -5521,106 +5583,106 @@
       <c r="F33" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="G33" s="130"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="136"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="145"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="146" t="s">
+      <c r="B34" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="64" t="s">
+      <c r="F34" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="137" t="s">
+      <c r="G34" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="H34" s="139" t="s">
+      <c r="H34" s="148" t="s">
         <v>233</v>
       </c>
-      <c r="I34" s="141" t="s">
+      <c r="I34" s="150" t="s">
         <v>251</v>
       </c>
-      <c r="J34" s="155" t="s">
+      <c r="J34" s="164" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="118" t="s">
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="149"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="159"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="168"/>
     </row>
     <row r="36" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="68" t="s">
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="70" t="s">
+      <c r="F36" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="G36" s="138"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="156"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="135" t="s">
+      <c r="C37" s="144" t="s">
         <v>212</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="129" t="s">
+      <c r="G37" s="138" t="s">
         <v>230</v>
       </c>
-      <c r="H37" s="131" t="s">
+      <c r="H37" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="I37" s="143" t="s">
+      <c r="I37" s="152" t="s">
         <v>259</v>
       </c>
-      <c r="J37" s="127" t="s">
+      <c r="J37" s="136" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="3" t="s">
         <v>182</v>
       </c>
@@ -5630,14 +5692,14 @@
       <c r="F38" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="152"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="158"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="167"/>
     </row>
     <row r="39" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
       <c r="D39" s="7" t="s">
         <v>45</v>
       </c>
@@ -5647,37 +5709,37 @@
       <c r="F39" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="128"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="137"/>
     </row>
     <row r="40" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="77" t="s">
+      <c r="G40" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="78" t="s">
+      <c r="H40" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="I40" s="111" t="s">
+      <c r="I40" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="J40" s="81" t="s">
+      <c r="J40" s="80" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5703,39 +5765,39 @@
       <c r="H41" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="38" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="111" t="s">
+      <c r="I42" s="110" t="s">
         <v>272</v>
       </c>
-      <c r="J42" s="81" t="s">
+      <c r="J42" s="80" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5761,7 +5823,7 @@
       <c r="H43" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="52" t="s">
         <v>276</v>
       </c>
       <c r="J43" s="34" t="s">
@@ -5769,31 +5831,31 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="77" t="s">
+      <c r="G44" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="78" t="s">
+      <c r="H44" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="I44" s="111" t="s">
+      <c r="I44" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="J44" s="119" t="s">
+      <c r="J44" s="118" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5819,149 +5881,149 @@
       <c r="H45" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="38" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F46" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="77" t="s">
+      <c r="G46" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="I46" s="111" t="s">
+      <c r="I46" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="J46" s="81" t="s">
+      <c r="J46" s="80" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="184" t="s">
+      <c r="B47" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="184" t="s">
+      <c r="C47" s="120" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="185" t="s">
+      <c r="D47" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="186" t="s">
+      <c r="E47" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="187" t="s">
+      <c r="F47" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="185" t="s">
+      <c r="G47" s="121" t="s">
         <v>270</v>
       </c>
-      <c r="H47" s="186" t="s">
+      <c r="H47" s="122" t="s">
         <v>288</v>
       </c>
-      <c r="I47" s="188" t="s">
+      <c r="I47" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="J47" s="189" t="s">
+      <c r="J47" s="125" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="155" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="137" t="s">
+      <c r="G48" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="139" t="s">
+      <c r="H48" s="148" t="s">
         <v>293</v>
       </c>
-      <c r="I48" s="141" t="s">
+      <c r="I48" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="J48" s="155" t="s">
+      <c r="J48" s="164" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="148"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="68" t="s">
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="F49" s="70" t="s">
+      <c r="F49" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="138"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="156"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="165"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="144" t="s">
         <v>301</v>
       </c>
-      <c r="C50" s="135" t="s">
+      <c r="C50" s="144" t="s">
         <v>262</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="129" t="s">
+      <c r="G50" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="131" t="s">
+      <c r="H50" s="140" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="143" t="s">
+      <c r="I50" s="152" t="s">
         <v>305</v>
       </c>
-      <c r="J50" s="127" t="s">
+      <c r="J50" s="136" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
       <c r="D51" s="7" t="s">
         <v>38</v>
       </c>
@@ -5971,89 +6033,89 @@
       <c r="F51" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="G51" s="130"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="128"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="137"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="146" t="s">
+      <c r="B52" s="155" t="s">
         <v>307</v>
       </c>
-      <c r="C52" s="146" t="s">
+      <c r="C52" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D52" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="E52" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="137" t="s">
+      <c r="G52" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="139" t="s">
+      <c r="H52" s="148" t="s">
         <v>308</v>
       </c>
-      <c r="I52" s="141" t="s">
+      <c r="I52" s="150" t="s">
         <v>309</v>
       </c>
-      <c r="J52" s="155" t="s">
+      <c r="J52" s="164" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="68" t="s">
+      <c r="B53" s="157"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="G53" s="138"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="156"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="165"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="135" t="s">
+      <c r="B54" s="144" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C54" s="144" t="s">
         <v>262</v>
       </c>
       <c r="D54" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="129" t="s">
+      <c r="G54" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="131" t="s">
+      <c r="H54" s="140" t="s">
         <v>312</v>
       </c>
-      <c r="I54" s="143" t="s">
+      <c r="I54" s="152" t="s">
         <v>313</v>
       </c>
-      <c r="J54" s="127" t="s">
+      <c r="J54" s="136" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
       <c r="D55" s="7" t="s">
         <v>38</v>
       </c>
@@ -6063,89 +6125,89 @@
       <c r="F55" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="G55" s="130"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="128"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="137"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="155" t="s">
         <v>315</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="155" t="s">
         <v>262</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="E56" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="64" t="s">
+      <c r="F56" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="137" t="s">
+      <c r="G56" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="139" t="s">
+      <c r="H56" s="148" t="s">
         <v>316</v>
       </c>
-      <c r="I56" s="141" t="s">
+      <c r="I56" s="150" t="s">
         <v>317</v>
       </c>
-      <c r="J56" s="155" t="s">
+      <c r="J56" s="164" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="148"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="68" t="s">
+      <c r="B57" s="157"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="69" t="s">
+      <c r="E57" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="F57" s="70" t="s">
+      <c r="F57" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="G57" s="138"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="156"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="165"/>
     </row>
     <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="144" t="s">
         <v>319</v>
       </c>
-      <c r="C58" s="135" t="s">
+      <c r="C58" s="144" t="s">
         <v>262</v>
       </c>
       <c r="D58" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="40" t="s">
+      <c r="E58" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="129" t="s">
+      <c r="G58" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="H58" s="140" t="s">
         <v>320</v>
       </c>
-      <c r="I58" s="143" t="s">
+      <c r="I58" s="152" t="s">
         <v>321</v>
       </c>
-      <c r="J58" s="135" t="s">
+      <c r="J58" s="144" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
+      <c r="B59" s="145"/>
+      <c r="C59" s="145"/>
       <c r="D59" s="7" t="s">
         <v>64</v>
       </c>
@@ -6155,21 +6217,21 @@
       <c r="F59" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="G59" s="130"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="136"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="153"/>
+      <c r="J59" s="145"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="57"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="11"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="120"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="119"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
@@ -6179,7 +6241,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="108"/>
+      <c r="I61" s="107"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -6190,7 +6252,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="108"/>
+      <c r="I62" s="107"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -6201,7 +6263,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="108"/>
+      <c r="I63" s="107"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -6212,7 +6274,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="108"/>
+      <c r="I64" s="107"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -6223,7 +6285,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="108"/>
+      <c r="I65" s="107"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -6234,7 +6296,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="108"/>
+      <c r="I66" s="107"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -6245,7 +6307,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="108"/>
+      <c r="I67" s="107"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -6256,7 +6318,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="108"/>
+      <c r="I68" s="107"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -6267,7 +6329,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="108"/>
+      <c r="I69" s="107"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -6278,7 +6340,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="108"/>
+      <c r="I70" s="107"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -6289,7 +6351,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="108"/>
+      <c r="I71" s="107"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -6300,7 +6362,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="108"/>
+      <c r="I72" s="107"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -6311,7 +6373,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="108"/>
+      <c r="I73" s="107"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -6322,7 +6384,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="108"/>
+      <c r="I74" s="107"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -6333,7 +6395,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="108"/>
+      <c r="I75" s="107"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -6344,7 +6406,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="108"/>
+      <c r="I76" s="107"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -6355,7 +6417,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="108"/>
+      <c r="I77" s="107"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -6366,7 +6428,7 @@
       <c r="F78" s="18"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="108"/>
+      <c r="I78" s="107"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -6377,7 +6439,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="108"/>
+      <c r="I79" s="107"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -6388,7 +6450,7 @@
       <c r="F80" s="18"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="108"/>
+      <c r="I80" s="107"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -6399,7 +6461,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="108"/>
+      <c r="I81" s="107"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -6410,7 +6472,7 @@
       <c r="F82" s="18"/>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="108"/>
+      <c r="I82" s="107"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -6421,7 +6483,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="108"/>
+      <c r="I83" s="107"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -6432,7 +6494,7 @@
       <c r="F84" s="18"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="108"/>
+      <c r="I84" s="107"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -6443,7 +6505,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="108"/>
+      <c r="I85" s="107"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -6454,7 +6516,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="108"/>
+      <c r="I86" s="107"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -6465,7 +6527,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="108"/>
+      <c r="I87" s="107"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -6476,7 +6538,7 @@
       <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="108"/>
+      <c r="I88" s="107"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -6487,7 +6549,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="108"/>
+      <c r="I89" s="107"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -6498,7 +6560,7 @@
       <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="108"/>
+      <c r="I90" s="107"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -6509,7 +6571,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="108"/>
+      <c r="I91" s="107"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -6520,7 +6582,7 @@
       <c r="F92" s="18"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="108"/>
+      <c r="I92" s="107"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -6531,7 +6593,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="108"/>
+      <c r="I93" s="107"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -6542,7 +6604,7 @@
       <c r="F94" s="18"/>
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="108"/>
+      <c r="I94" s="107"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -6553,7 +6615,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="108"/>
+      <c r="I95" s="107"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -6564,7 +6626,7 @@
       <c r="F96" s="18"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="108"/>
+      <c r="I96" s="107"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -6575,7 +6637,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="108"/>
+      <c r="I97" s="107"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -6586,7 +6648,7 @@
       <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="108"/>
+      <c r="I98" s="107"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -6597,7 +6659,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="108"/>
+      <c r="I99" s="107"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -6608,7 +6670,7 @@
       <c r="F100" s="18"/>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="108"/>
+      <c r="I100" s="107"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -6619,7 +6681,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="108"/>
+      <c r="I101" s="107"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -6630,7 +6692,7 @@
       <c r="F102" s="18"/>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="108"/>
+      <c r="I102" s="107"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -6641,7 +6703,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="108"/>
+      <c r="I103" s="107"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -6652,7 +6714,7 @@
       <c r="F104" s="18"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="108"/>
+      <c r="I104" s="107"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -6663,7 +6725,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="108"/>
+      <c r="I105" s="107"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -6674,7 +6736,7 @@
       <c r="F106" s="18"/>
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="108"/>
+      <c r="I106" s="107"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -6685,7 +6747,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="108"/>
+      <c r="I107" s="107"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -6696,7 +6758,7 @@
       <c r="F108" s="18"/>
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="108"/>
+      <c r="I108" s="107"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -6707,7 +6769,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="108"/>
+      <c r="I109" s="107"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -6718,7 +6780,7 @@
       <c r="F110" s="18"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="108"/>
+      <c r="I110" s="107"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -6729,7 +6791,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="108"/>
+      <c r="I111" s="107"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -6740,7 +6802,7 @@
       <c r="F112" s="18"/>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="108"/>
+      <c r="I112" s="107"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -6751,7 +6813,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="108"/>
+      <c r="I113" s="107"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -6762,7 +6824,7 @@
       <c r="F114" s="18"/>
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="108"/>
+      <c r="I114" s="107"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -6773,7 +6835,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="108"/>
+      <c r="I115" s="107"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
@@ -6784,7 +6846,7 @@
       <c r="F116" s="18"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="108"/>
+      <c r="I116" s="107"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -6795,7 +6857,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="108"/>
+      <c r="I117" s="107"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
@@ -6806,7 +6868,7 @@
       <c r="F118" s="18"/>
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="108"/>
+      <c r="I118" s="107"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -6817,7 +6879,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="108"/>
+      <c r="I119" s="107"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
@@ -6828,7 +6890,7 @@
       <c r="F120" s="18"/>
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="108"/>
+      <c r="I120" s="107"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
@@ -6839,7 +6901,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="108"/>
+      <c r="I121" s="107"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -6850,7 +6912,7 @@
       <c r="F122" s="18"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="108"/>
+      <c r="I122" s="107"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
@@ -6861,7 +6923,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="108"/>
+      <c r="I123" s="107"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
@@ -6872,7 +6934,7 @@
       <c r="F124" s="18"/>
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="108"/>
+      <c r="I124" s="107"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
@@ -6883,7 +6945,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="108"/>
+      <c r="I125" s="107"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
@@ -6894,7 +6956,7 @@
       <c r="F126" s="18"/>
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="108"/>
+      <c r="I126" s="107"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -6905,7 +6967,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="108"/>
+      <c r="I127" s="107"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
@@ -6916,7 +6978,7 @@
       <c r="F128" s="18"/>
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="108"/>
+      <c r="I128" s="107"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
@@ -6927,7 +6989,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="108"/>
+      <c r="I129" s="107"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
@@ -6938,7 +7000,7 @@
       <c r="F130" s="18"/>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="108"/>
+      <c r="I130" s="107"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
@@ -6949,7 +7011,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="108"/>
+      <c r="I131" s="107"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
@@ -6960,7 +7022,7 @@
       <c r="F132" s="18"/>
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="108"/>
+      <c r="I132" s="107"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
@@ -6971,7 +7033,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="108"/>
+      <c r="I133" s="107"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
@@ -6982,7 +7044,7 @@
       <c r="F134" s="18"/>
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="108"/>
+      <c r="I134" s="107"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
@@ -6993,7 +7055,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="108"/>
+      <c r="I135" s="107"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
@@ -7004,7 +7066,7 @@
       <c r="F136" s="18"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="108"/>
+      <c r="I136" s="107"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
@@ -7015,7 +7077,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="108"/>
+      <c r="I137" s="107"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
@@ -7026,7 +7088,7 @@
       <c r="F138" s="18"/>
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="108"/>
+      <c r="I138" s="107"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
@@ -7037,7 +7099,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="108"/>
+      <c r="I139" s="107"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
@@ -7048,7 +7110,7 @@
       <c r="F140" s="18"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="108"/>
+      <c r="I140" s="107"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
@@ -7059,7 +7121,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="108"/>
+      <c r="I141" s="107"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
@@ -7070,7 +7132,7 @@
       <c r="F142" s="18"/>
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="108"/>
+      <c r="I142" s="107"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
@@ -7081,7 +7143,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="108"/>
+      <c r="I143" s="107"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
@@ -7092,7 +7154,7 @@
       <c r="F144" s="18"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="108"/>
+      <c r="I144" s="107"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
@@ -7103,7 +7165,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="108"/>
+      <c r="I145" s="107"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
@@ -7114,7 +7176,7 @@
       <c r="F146" s="18"/>
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="108"/>
+      <c r="I146" s="107"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
@@ -7125,7 +7187,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="108"/>
+      <c r="I147" s="107"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
@@ -7136,7 +7198,7 @@
       <c r="F148" s="18"/>
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="108"/>
+      <c r="I148" s="107"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
@@ -7147,7 +7209,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="108"/>
+      <c r="I149" s="107"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
@@ -7158,7 +7220,7 @@
       <c r="F150" s="18"/>
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="108"/>
+      <c r="I150" s="107"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
@@ -7169,7 +7231,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="108"/>
+      <c r="I151" s="107"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
@@ -7180,7 +7242,7 @@
       <c r="F152" s="18"/>
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="108"/>
+      <c r="I152" s="107"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
@@ -7191,7 +7253,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="108"/>
+      <c r="I153" s="107"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
@@ -7202,7 +7264,7 @@
       <c r="F154" s="18"/>
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="108"/>
+      <c r="I154" s="107"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
@@ -7213,7 +7275,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="108"/>
+      <c r="I155" s="107"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
@@ -7224,7 +7286,7 @@
       <c r="F156" s="18"/>
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="108"/>
+      <c r="I156" s="107"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
@@ -7235,7 +7297,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="108"/>
+      <c r="I157" s="107"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
@@ -7246,7 +7308,7 @@
       <c r="F158" s="18"/>
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="108"/>
+      <c r="I158" s="107"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
@@ -7257,7 +7319,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="108"/>
+      <c r="I159" s="107"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -7268,7 +7330,7 @@
       <c r="F160" s="18"/>
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="108"/>
+      <c r="I160" s="107"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
@@ -7279,7 +7341,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="108"/>
+      <c r="I161" s="107"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
@@ -7290,7 +7352,7 @@
       <c r="F162" s="18"/>
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="108"/>
+      <c r="I162" s="107"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
@@ -7301,7 +7363,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="108"/>
+      <c r="I163" s="107"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
@@ -7312,7 +7374,7 @@
       <c r="F164" s="18"/>
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="108"/>
+      <c r="I164" s="107"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
@@ -7323,7 +7385,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="3"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="108"/>
+      <c r="I165" s="107"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
@@ -7334,7 +7396,7 @@
       <c r="F166" s="18"/>
       <c r="G166" s="3"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="108"/>
+      <c r="I166" s="107"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
@@ -7345,7 +7407,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="3"/>
       <c r="H167" s="4"/>
-      <c r="I167" s="108"/>
+      <c r="I167" s="107"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7356,7 +7418,7 @@
       <c r="F168" s="37"/>
       <c r="G168" s="7"/>
       <c r="H168" s="8"/>
-      <c r="I168" s="87"/>
+      <c r="I168" s="86"/>
       <c r="J168" s="9"/>
     </row>
   </sheetData>
@@ -7424,6 +7486,20 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="C12:C13"/>
@@ -7434,42 +7510,20 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
@@ -7486,6 +7540,14 @@
     <mergeCell ref="H29:H31"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="J29:J31"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7498,8 +7560,8 @@
   </sheetPr>
   <dimension ref="B1:J170"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7508,7 +7570,7 @@
     <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="57" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="97.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
@@ -7518,29 +7580,29 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -7559,40 +7621,40 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="144" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="135" t="s">
+      <c r="J4" s="144" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7602,14 +7664,14 @@
       <c r="F5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="145"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
       <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
@@ -7619,14 +7681,14 @@
       <c r="F6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="145"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="154"/>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
@@ -7636,14 +7698,14 @@
       <c r="F7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="152"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="145"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
@@ -7653,106 +7715,106 @@
       <c r="F8" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="136"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="145"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="139" t="s">
+      <c r="H9" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="146" t="s">
+      <c r="J9" s="155" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="65" t="s">
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="149"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="147"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="68" t="s">
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="148"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="144" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="131" t="s">
+      <c r="H12" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="144" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -7762,14 +7824,14 @@
       <c r="F13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="145"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="154"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
       <c r="D14" s="3" t="s">
         <v>64</v>
       </c>
@@ -7779,14 +7841,14 @@
       <c r="F14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="145"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="154"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
@@ -7796,14 +7858,14 @@
       <c r="F15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="145"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="154"/>
     </row>
     <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
       <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
@@ -7813,14 +7875,14 @@
       <c r="F16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="145"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="154"/>
     </row>
     <row r="17" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
@@ -7830,146 +7892,146 @@
       <c r="F17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="136"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="145"/>
     </row>
     <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="137" t="s">
+      <c r="G18" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="139" t="s">
+      <c r="H18" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="165" t="s">
+      <c r="I18" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="146" t="s">
+      <c r="J18" s="155" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="65" t="s">
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="149"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="147"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="65" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="147"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="68" t="s">
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="148"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="157"/>
     </row>
     <row r="22" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="78" t="s">
+      <c r="E23" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="79" t="s">
+      <c r="F23" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="80" t="s">
+      <c r="I23" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="81" t="s">
+      <c r="J23" s="80" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7998,363 +8060,363 @@
       <c r="I24" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="85" t="s">
+      <c r="J25" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="144" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="129" t="s">
+      <c r="G26" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="131" t="s">
+      <c r="H26" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="133" t="s">
+      <c r="I26" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="135" t="s">
+      <c r="J26" s="144" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="59" t="s">
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="136"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="146" t="s">
+      <c r="B28" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="105" t="s">
+      <c r="E28" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="139" t="s">
+      <c r="H28" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="165" t="s">
+      <c r="I28" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="146" t="s">
+      <c r="J28" s="155" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="148"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="68" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="107" t="s">
+      <c r="F29" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="138"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="148"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="157"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="101" t="s">
+      <c r="F30" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="170" t="s">
+      <c r="G30" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="173" t="s">
+      <c r="H30" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="176" t="s">
+      <c r="I30" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="160" t="s">
+      <c r="J30" s="169" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="91" t="s">
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="171"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="161"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="170"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="94" t="s">
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="95" t="s">
+      <c r="E32" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="F32" s="96" t="s">
+      <c r="F32" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="172"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="162"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="146" t="s">
+      <c r="B33" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="64" t="s">
+      <c r="F33" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="137" t="s">
+      <c r="G33" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="139" t="s">
+      <c r="H33" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="165" t="s">
+      <c r="I33" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="155" t="s">
+      <c r="J33" s="164" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="65" t="s">
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="149"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="159"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="168"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="68" t="s">
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="138"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="156"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="167" t="s">
+      <c r="B36" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="167" t="s">
+      <c r="C36" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="90" t="s">
+      <c r="F36" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="170" t="s">
+      <c r="G36" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="173" t="s">
+      <c r="H36" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="176" t="s">
+      <c r="I36" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="160" t="s">
+      <c r="J36" s="169" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="91" t="s">
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="93" t="s">
+      <c r="F37" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="171"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="177"/>
-      <c r="J37" s="161"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="170"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="102" t="s">
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="103" t="s">
+      <c r="E38" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="171"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="177"/>
-      <c r="J38" s="161"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="170"/>
     </row>
     <row r="39" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="94" t="s">
+      <c r="B39" s="178"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="172"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="162"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="79" t="s">
+      <c r="F40" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="77" t="s">
+      <c r="G40" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="78" t="s">
+      <c r="H40" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="80" t="s">
+      <c r="I40" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="81" t="s">
+      <c r="J40" s="80" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8383,82 +8445,124 @@
       <c r="I41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="38" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F42" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="80" t="s">
+      <c r="I42" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="J42" s="81" t="s">
+      <c r="J42" s="80" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="13"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="5"/>
+    <row r="43" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="144" t="s">
+        <v>326</v>
+      </c>
+      <c r="C43" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="197" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="136" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="167"/>
+    </row>
+    <row r="45" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="137"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="5"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="129"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -9831,7 +9935,10 @@
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="59">
+  <mergeCells count="62">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="J43:J45"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -9914,9 +10021,9 @@
     <col min="2" max="3" width="20.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="57" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="57" customWidth="1"/>
     <col min="10" max="10" width="97.28515625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
@@ -9926,29 +10033,29 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -9967,19 +10074,19 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="144" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="36" t="s">
@@ -9988,19 +10095,19 @@
       <c r="G4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="136" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -10016,14 +10123,14 @@
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="158"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
@@ -10039,37 +10146,37 @@
       <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="128"/>
+      <c r="J6" s="137"/>
     </row>
     <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="80" t="s">
         <v>152</v>
       </c>
     </row>
@@ -10080,7 +10187,7 @@
       <c r="C8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="111" t="s">
         <v>149</v>
       </c>
       <c r="E8" s="31" t="s">
@@ -10095,39 +10202,39 @@
       <c r="H8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="80" t="s">
         <v>159</v>
       </c>
     </row>
@@ -10138,7 +10245,7 @@
       <c r="C10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="111" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -10153,58 +10260,58 @@
       <c r="H10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="38" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="139" t="s">
+      <c r="H11" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="141" t="s">
+      <c r="I11" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="146" t="s">
+      <c r="J11" s="155" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="113" t="s">
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="148"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="157"/>
     </row>
     <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
@@ -10213,7 +10320,7 @@
       <c r="C13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="111" t="s">
         <v>149</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -10228,74 +10335,74 @@
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="38" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J14" s="80" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>150</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="127" t="s">
+      <c r="J15" s="136" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="7" t="s">
         <v>64</v>
       </c>
@@ -10305,10 +10412,10 @@
       <c r="F16" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="128"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -10317,10 +10424,10 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="57"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="109"/>
+      <c r="I17" s="108"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -10333,7 +10440,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="108"/>
+      <c r="I18" s="107"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -10346,7 +10453,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="108"/>
+      <c r="I19" s="107"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -10359,7 +10466,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="108"/>
+      <c r="I20" s="107"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -10372,7 +10479,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="108"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -10385,7 +10492,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="108"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -10398,7 +10505,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="108"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -10411,7 +10518,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="108"/>
+      <c r="I24" s="107"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -10424,7 +10531,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="108"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -10437,7 +10544,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="108"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -10450,7 +10557,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="108"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -10463,7 +10570,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="108"/>
+      <c r="I28" s="107"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -10476,7 +10583,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="108"/>
+      <c r="I29" s="107"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -10489,7 +10596,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="108"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -10502,7 +10609,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="108"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -10515,7 +10622,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="108"/>
+      <c r="I32" s="107"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -10528,7 +10635,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="108"/>
+      <c r="I33" s="107"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -10539,7 +10646,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="108"/>
+      <c r="I34" s="107"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -10550,7 +10657,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="108"/>
+      <c r="I35" s="107"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -10561,7 +10668,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="108"/>
+      <c r="I36" s="107"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -10572,7 +10679,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="108"/>
+      <c r="I37" s="107"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -10583,7 +10690,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="108"/>
+      <c r="I38" s="107"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -10594,7 +10701,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="108"/>
+      <c r="I39" s="107"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -10605,7 +10712,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="108"/>
+      <c r="I40" s="107"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -10616,7 +10723,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="108"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -10627,7 +10734,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="108"/>
+      <c r="I42" s="107"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -10638,7 +10745,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="108"/>
+      <c r="I43" s="107"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -10649,7 +10756,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="108"/>
+      <c r="I44" s="107"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -10660,7 +10767,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="108"/>
+      <c r="I45" s="107"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -10671,7 +10778,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="108"/>
+      <c r="I46" s="107"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -10682,7 +10789,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="108"/>
+      <c r="I47" s="107"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -10693,7 +10800,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="108"/>
+      <c r="I48" s="107"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -10704,7 +10811,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="108"/>
+      <c r="I49" s="107"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -10715,7 +10822,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="108"/>
+      <c r="I50" s="107"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -10726,7 +10833,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="108"/>
+      <c r="I51" s="107"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -10737,7 +10844,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="108"/>
+      <c r="I52" s="107"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -10748,7 +10855,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="108"/>
+      <c r="I53" s="107"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -10759,7 +10866,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="108"/>
+      <c r="I54" s="107"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -10770,7 +10877,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="108"/>
+      <c r="I55" s="107"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -10781,7 +10888,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="108"/>
+      <c r="I56" s="107"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -10792,7 +10899,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="108"/>
+      <c r="I57" s="107"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -10803,7 +10910,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="108"/>
+      <c r="I58" s="107"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -10814,7 +10921,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="108"/>
+      <c r="I59" s="107"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -10825,7 +10932,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="108"/>
+      <c r="I60" s="107"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -10836,7 +10943,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="108"/>
+      <c r="I61" s="107"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -10847,7 +10954,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="108"/>
+      <c r="I62" s="107"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -10858,7 +10965,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="108"/>
+      <c r="I63" s="107"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -10869,7 +10976,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="108"/>
+      <c r="I64" s="107"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -10880,7 +10987,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="108"/>
+      <c r="I65" s="107"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -10891,7 +10998,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="108"/>
+      <c r="I66" s="107"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -10902,7 +11009,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="108"/>
+      <c r="I67" s="107"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -10913,7 +11020,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="108"/>
+      <c r="I68" s="107"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -10924,7 +11031,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="108"/>
+      <c r="I69" s="107"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -10935,7 +11042,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="108"/>
+      <c r="I70" s="107"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -10946,7 +11053,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="108"/>
+      <c r="I71" s="107"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -10957,7 +11064,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="108"/>
+      <c r="I72" s="107"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -10968,7 +11075,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="108"/>
+      <c r="I73" s="107"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -10979,7 +11086,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="108"/>
+      <c r="I74" s="107"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -10990,7 +11097,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="108"/>
+      <c r="I75" s="107"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -11001,7 +11108,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="108"/>
+      <c r="I76" s="107"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -11012,7 +11119,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="108"/>
+      <c r="I77" s="107"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -11023,7 +11130,7 @@
       <c r="F78" s="18"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="108"/>
+      <c r="I78" s="107"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -11034,7 +11141,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="108"/>
+      <c r="I79" s="107"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -11045,7 +11152,7 @@
       <c r="F80" s="18"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="108"/>
+      <c r="I80" s="107"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -11056,7 +11163,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="108"/>
+      <c r="I81" s="107"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -11067,7 +11174,7 @@
       <c r="F82" s="18"/>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="108"/>
+      <c r="I82" s="107"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -11078,7 +11185,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="108"/>
+      <c r="I83" s="107"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -11089,7 +11196,7 @@
       <c r="F84" s="18"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="108"/>
+      <c r="I84" s="107"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -11100,7 +11207,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="108"/>
+      <c r="I85" s="107"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -11111,7 +11218,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="108"/>
+      <c r="I86" s="107"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -11122,7 +11229,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="108"/>
+      <c r="I87" s="107"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -11133,7 +11240,7 @@
       <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="108"/>
+      <c r="I88" s="107"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -11144,7 +11251,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="108"/>
+      <c r="I89" s="107"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -11155,7 +11262,7 @@
       <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="108"/>
+      <c r="I90" s="107"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -11166,7 +11273,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="108"/>
+      <c r="I91" s="107"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -11177,7 +11284,7 @@
       <c r="F92" s="18"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="108"/>
+      <c r="I92" s="107"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -11188,7 +11295,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="108"/>
+      <c r="I93" s="107"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -11199,7 +11306,7 @@
       <c r="F94" s="18"/>
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="108"/>
+      <c r="I94" s="107"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -11210,7 +11317,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="108"/>
+      <c r="I95" s="107"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -11221,7 +11328,7 @@
       <c r="F96" s="18"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="108"/>
+      <c r="I96" s="107"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -11232,7 +11339,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="108"/>
+      <c r="I97" s="107"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -11243,7 +11350,7 @@
       <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="108"/>
+      <c r="I98" s="107"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -11254,7 +11361,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="108"/>
+      <c r="I99" s="107"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -11265,7 +11372,7 @@
       <c r="F100" s="18"/>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="108"/>
+      <c r="I100" s="107"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -11276,7 +11383,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="108"/>
+      <c r="I101" s="107"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -11287,7 +11394,7 @@
       <c r="F102" s="18"/>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="108"/>
+      <c r="I102" s="107"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -11298,7 +11405,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="108"/>
+      <c r="I103" s="107"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -11309,7 +11416,7 @@
       <c r="F104" s="18"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="108"/>
+      <c r="I104" s="107"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -11320,7 +11427,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="108"/>
+      <c r="I105" s="107"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -11331,7 +11438,7 @@
       <c r="F106" s="18"/>
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="108"/>
+      <c r="I106" s="107"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -11342,7 +11449,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="108"/>
+      <c r="I107" s="107"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -11353,7 +11460,7 @@
       <c r="F108" s="18"/>
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="108"/>
+      <c r="I108" s="107"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -11364,7 +11471,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="108"/>
+      <c r="I109" s="107"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -11375,7 +11482,7 @@
       <c r="F110" s="18"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="108"/>
+      <c r="I110" s="107"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
@@ -11386,7 +11493,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="108"/>
+      <c r="I111" s="107"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -11397,7 +11504,7 @@
       <c r="F112" s="18"/>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="108"/>
+      <c r="I112" s="107"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -11408,7 +11515,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="108"/>
+      <c r="I113" s="107"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
@@ -11419,7 +11526,7 @@
       <c r="F114" s="18"/>
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="108"/>
+      <c r="I114" s="107"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -11430,7 +11537,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="108"/>
+      <c r="I115" s="107"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
@@ -11441,7 +11548,7 @@
       <c r="F116" s="18"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="108"/>
+      <c r="I116" s="107"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -11452,7 +11559,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="108"/>
+      <c r="I117" s="107"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
@@ -11463,7 +11570,7 @@
       <c r="F118" s="18"/>
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="108"/>
+      <c r="I118" s="107"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -11474,7 +11581,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="108"/>
+      <c r="I119" s="107"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
@@ -11485,7 +11592,7 @@
       <c r="F120" s="18"/>
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="108"/>
+      <c r="I120" s="107"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
@@ -11496,7 +11603,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="108"/>
+      <c r="I121" s="107"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -11507,7 +11614,7 @@
       <c r="F122" s="18"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="108"/>
+      <c r="I122" s="107"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
@@ -11518,7 +11625,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="108"/>
+      <c r="I123" s="107"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
@@ -11529,7 +11636,7 @@
       <c r="F124" s="18"/>
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="108"/>
+      <c r="I124" s="107"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
@@ -11540,7 +11647,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="108"/>
+      <c r="I125" s="107"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
@@ -11551,7 +11658,7 @@
       <c r="F126" s="18"/>
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="108"/>
+      <c r="I126" s="107"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -11562,7 +11669,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="108"/>
+      <c r="I127" s="107"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
@@ -11573,7 +11680,7 @@
       <c r="F128" s="18"/>
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="108"/>
+      <c r="I128" s="107"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
@@ -11584,7 +11691,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="108"/>
+      <c r="I129" s="107"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
@@ -11595,7 +11702,7 @@
       <c r="F130" s="18"/>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="108"/>
+      <c r="I130" s="107"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
@@ -11606,7 +11713,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="108"/>
+      <c r="I131" s="107"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
@@ -11617,7 +11724,7 @@
       <c r="F132" s="18"/>
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="108"/>
+      <c r="I132" s="107"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
@@ -11628,7 +11735,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="108"/>
+      <c r="I133" s="107"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
@@ -11639,7 +11746,7 @@
       <c r="F134" s="18"/>
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="108"/>
+      <c r="I134" s="107"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
@@ -11650,7 +11757,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="108"/>
+      <c r="I135" s="107"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
@@ -11661,7 +11768,7 @@
       <c r="F136" s="18"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="108"/>
+      <c r="I136" s="107"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
@@ -11672,7 +11779,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="108"/>
+      <c r="I137" s="107"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
@@ -11683,7 +11790,7 @@
       <c r="F138" s="18"/>
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="108"/>
+      <c r="I138" s="107"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
@@ -11694,7 +11801,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="108"/>
+      <c r="I139" s="107"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
@@ -11705,7 +11812,7 @@
       <c r="F140" s="18"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="108"/>
+      <c r="I140" s="107"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
@@ -11716,7 +11823,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="108"/>
+      <c r="I141" s="107"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
@@ -11727,7 +11834,7 @@
       <c r="F142" s="18"/>
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="108"/>
+      <c r="I142" s="107"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
@@ -11738,7 +11845,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="108"/>
+      <c r="I143" s="107"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
@@ -11749,7 +11856,7 @@
       <c r="F144" s="18"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="108"/>
+      <c r="I144" s="107"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
@@ -11760,7 +11867,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="108"/>
+      <c r="I145" s="107"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
@@ -11771,7 +11878,7 @@
       <c r="F146" s="18"/>
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="108"/>
+      <c r="I146" s="107"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
@@ -11782,7 +11889,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="108"/>
+      <c r="I147" s="107"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
@@ -11793,7 +11900,7 @@
       <c r="F148" s="18"/>
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="108"/>
+      <c r="I148" s="107"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
@@ -11804,7 +11911,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="108"/>
+      <c r="I149" s="107"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
@@ -11815,7 +11922,7 @@
       <c r="F150" s="18"/>
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="108"/>
+      <c r="I150" s="107"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
@@ -11826,7 +11933,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="108"/>
+      <c r="I151" s="107"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
@@ -11837,7 +11944,7 @@
       <c r="F152" s="18"/>
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="108"/>
+      <c r="I152" s="107"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
@@ -11848,7 +11955,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="108"/>
+      <c r="I153" s="107"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
@@ -11859,7 +11966,7 @@
       <c r="F154" s="18"/>
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="108"/>
+      <c r="I154" s="107"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
@@ -11870,7 +11977,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="108"/>
+      <c r="I155" s="107"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
@@ -11881,7 +11988,7 @@
       <c r="F156" s="18"/>
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="108"/>
+      <c r="I156" s="107"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
@@ -11892,7 +11999,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="108"/>
+      <c r="I157" s="107"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
@@ -11903,7 +12010,7 @@
       <c r="F158" s="18"/>
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="108"/>
+      <c r="I158" s="107"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
@@ -11914,7 +12021,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="108"/>
+      <c r="I159" s="107"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -11925,7 +12032,7 @@
       <c r="F160" s="18"/>
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="108"/>
+      <c r="I160" s="107"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
@@ -11936,7 +12043,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="108"/>
+      <c r="I161" s="107"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
@@ -11947,7 +12054,7 @@
       <c r="F162" s="18"/>
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="108"/>
+      <c r="I162" s="107"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
@@ -11958,7 +12065,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="108"/>
+      <c r="I163" s="107"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
@@ -11969,7 +12076,7 @@
       <c r="F164" s="18"/>
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="108"/>
+      <c r="I164" s="107"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11980,7 +12087,7 @@
       <c r="F165" s="37"/>
       <c r="G165" s="7"/>
       <c r="H165" s="8"/>
-      <c r="I165" s="87"/>
+      <c r="I165" s="86"/>
       <c r="J165" s="9"/>
     </row>
   </sheetData>
@@ -12037,29 +12144,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -12078,7 +12185,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -13895,10 +14002,10 @@
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="57" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="97.28515625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="57" customWidth="1"/>
+    <col min="10" max="10" width="97.28515625" style="57" customWidth="1"/>
     <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -13908,29 +14015,29 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -13949,40 +14056,40 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="144" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>163</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="143" t="s">
+      <c r="I4" s="152" t="s">
         <v>181</v>
       </c>
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="136" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="7" t="s">
         <v>176</v>
       </c>
@@ -13992,216 +14099,216 @@
       <c r="F5" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="128"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="137" t="s">
+      <c r="G6" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="141" t="s">
+      <c r="I6" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="155" t="s">
+      <c r="J6" s="164" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="65" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="159"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="168"/>
     </row>
     <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="138"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="156"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="165"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="176" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="170" t="s">
+      <c r="G9" s="179" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="173" t="s">
+      <c r="H9" s="182" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="181" t="s">
+      <c r="I9" s="190" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="160" t="s">
+      <c r="J9" s="169" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="91" t="s">
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="171"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="161"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="94" t="s">
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="172"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="162"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="137" t="s">
+      <c r="G12" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="139" t="s">
+      <c r="H12" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="150" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="155" t="s">
+      <c r="J12" s="164" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="65" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="67" t="s">
+      <c r="F13" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="159"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="49" t="s">
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="159"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="68" t="s">
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="156"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
@@ -14225,7 +14332,7 @@
       <c r="H16" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="52" t="s">
         <v>209</v>
       </c>
       <c r="J16" s="34" t="s">
@@ -14237,11 +14344,11 @@
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="57"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="117"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -14251,8 +14358,8 @@
       <c r="F18" s="18"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="72"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -14262,8 +14369,8 @@
       <c r="F19" s="18"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="72"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -14273,8 +14380,8 @@
       <c r="F20" s="18"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="72"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="71"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -14284,8 +14391,8 @@
       <c r="F21" s="18"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="72"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="71"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -14295,8 +14402,8 @@
       <c r="F22" s="18"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="72"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="71"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
@@ -14306,8 +14413,8 @@
       <c r="F23" s="18"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="72"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -14317,8 +14424,8 @@
       <c r="F24" s="18"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="72"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -14328,8 +14435,8 @@
       <c r="F25" s="18"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="72"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
@@ -14339,8 +14446,8 @@
       <c r="F26" s="18"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="72"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -14350,8 +14457,8 @@
       <c r="F27" s="18"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="72"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="71"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -14361,8 +14468,8 @@
       <c r="F28" s="18"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="72"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="71"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -14372,8 +14479,8 @@
       <c r="F29" s="18"/>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="72"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -14383,8 +14490,8 @@
       <c r="F30" s="18"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="72"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -14394,8 +14501,8 @@
       <c r="F31" s="18"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="72"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -14405,8 +14512,8 @@
       <c r="F32" s="18"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="72"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="71"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -14416,8 +14523,8 @@
       <c r="F33" s="18"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="72"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="71"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -14427,8 +14534,8 @@
       <c r="F34" s="18"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="72"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="71"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -14438,8 +14545,8 @@
       <c r="F35" s="18"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="72"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="71"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -14449,8 +14556,8 @@
       <c r="F36" s="18"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="72"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="71"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -14460,8 +14567,8 @@
       <c r="F37" s="18"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="72"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -14471,8 +14578,8 @@
       <c r="F38" s="18"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="72"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="71"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -14482,8 +14589,8 @@
       <c r="F39" s="18"/>
       <c r="G39" s="3"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="72"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="71"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -14493,8 +14600,8 @@
       <c r="F40" s="18"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="72"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="71"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
@@ -14504,8 +14611,8 @@
       <c r="F41" s="18"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="72"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="71"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
@@ -14515,8 +14622,8 @@
       <c r="F42" s="18"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="72"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="71"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -14526,8 +14633,8 @@
       <c r="F43" s="18"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="72"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
@@ -14537,8 +14644,8 @@
       <c r="F44" s="18"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="72"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="71"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
@@ -14548,8 +14655,8 @@
       <c r="F45" s="18"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="72"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="71"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
@@ -14559,8 +14666,8 @@
       <c r="F46" s="18"/>
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="72"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="71"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -14570,8 +14677,8 @@
       <c r="F47" s="18"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="72"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="71"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
@@ -14581,8 +14688,8 @@
       <c r="F48" s="18"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="72"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="71"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
@@ -14592,8 +14699,8 @@
       <c r="F49" s="18"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="72"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="71"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -14603,8 +14710,8 @@
       <c r="F50" s="18"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="72"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="71"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -14614,8 +14721,8 @@
       <c r="F51" s="18"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="72"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="71"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
@@ -14625,8 +14732,8 @@
       <c r="F52" s="18"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="72"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="71"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
@@ -14636,8 +14743,8 @@
       <c r="F53" s="18"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="72"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="71"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
@@ -14647,8 +14754,8 @@
       <c r="F54" s="18"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="72"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="71"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
@@ -14658,8 +14765,8 @@
       <c r="F55" s="18"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="72"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="71"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
@@ -14669,8 +14776,8 @@
       <c r="F56" s="18"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="72"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="71"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
@@ -14680,8 +14787,8 @@
       <c r="F57" s="18"/>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="108"/>
-      <c r="J57" s="72"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="71"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
@@ -14691,8 +14798,8 @@
       <c r="F58" s="18"/>
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="72"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="71"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
@@ -14702,8 +14809,8 @@
       <c r="F59" s="18"/>
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="72"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="71"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
@@ -14713,8 +14820,8 @@
       <c r="F60" s="18"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="72"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="71"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
@@ -14724,8 +14831,8 @@
       <c r="F61" s="18"/>
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="108"/>
-      <c r="J61" s="72"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="71"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
@@ -14735,8 +14842,8 @@
       <c r="F62" s="18"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="108"/>
-      <c r="J62" s="72"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="71"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
@@ -14746,8 +14853,8 @@
       <c r="F63" s="18"/>
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="108"/>
-      <c r="J63" s="72"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="71"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
@@ -14757,8 +14864,8 @@
       <c r="F64" s="18"/>
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="108"/>
-      <c r="J64" s="72"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="71"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
@@ -14768,8 +14875,8 @@
       <c r="F65" s="18"/>
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="72"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="71"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -14779,8 +14886,8 @@
       <c r="F66" s="18"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="72"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="71"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
@@ -14790,8 +14897,8 @@
       <c r="F67" s="18"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="72"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="71"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
@@ -14801,8 +14908,8 @@
       <c r="F68" s="18"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="108"/>
-      <c r="J68" s="72"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="71"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
@@ -14812,8 +14919,8 @@
       <c r="F69" s="18"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="72"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="71"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
@@ -14823,8 +14930,8 @@
       <c r="F70" s="18"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="108"/>
-      <c r="J70" s="72"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="71"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
@@ -14834,8 +14941,8 @@
       <c r="F71" s="18"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="72"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="71"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
@@ -14845,8 +14952,8 @@
       <c r="F72" s="18"/>
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="72"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
@@ -14856,8 +14963,8 @@
       <c r="F73" s="18"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="72"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="71"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
@@ -14867,8 +14974,8 @@
       <c r="F74" s="18"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="108"/>
-      <c r="J74" s="72"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="71"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
@@ -14878,8 +14985,8 @@
       <c r="F75" s="18"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="108"/>
-      <c r="J75" s="72"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="71"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
@@ -14889,8 +14996,8 @@
       <c r="F76" s="18"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="108"/>
-      <c r="J76" s="72"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="71"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
@@ -14900,8 +15007,8 @@
       <c r="F77" s="18"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="72"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="71"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
@@ -14911,8 +15018,8 @@
       <c r="F78" s="18"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="72"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="71"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
@@ -14922,8 +15029,8 @@
       <c r="F79" s="18"/>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="108"/>
-      <c r="J79" s="72"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="71"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
@@ -14933,8 +15040,8 @@
       <c r="F80" s="18"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="72"/>
+      <c r="I80" s="107"/>
+      <c r="J80" s="71"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
@@ -14944,8 +15051,8 @@
       <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="108"/>
-      <c r="J81" s="72"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="71"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
@@ -14955,8 +15062,8 @@
       <c r="F82" s="18"/>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="108"/>
-      <c r="J82" s="72"/>
+      <c r="I82" s="107"/>
+      <c r="J82" s="71"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
@@ -14966,8 +15073,8 @@
       <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="72"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="71"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
@@ -14977,8 +15084,8 @@
       <c r="F84" s="18"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="72"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="71"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
@@ -14988,8 +15095,8 @@
       <c r="F85" s="18"/>
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="72"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="71"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
@@ -14999,8 +15106,8 @@
       <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="72"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="71"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
@@ -15010,8 +15117,8 @@
       <c r="F87" s="18"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="72"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="71"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
@@ -15021,8 +15128,8 @@
       <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="72"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="71"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
@@ -15032,8 +15139,8 @@
       <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="108"/>
-      <c r="J89" s="72"/>
+      <c r="I89" s="107"/>
+      <c r="J89" s="71"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
@@ -15043,8 +15150,8 @@
       <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="108"/>
-      <c r="J90" s="72"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="71"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
@@ -15054,8 +15161,8 @@
       <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="108"/>
-      <c r="J91" s="72"/>
+      <c r="I91" s="107"/>
+      <c r="J91" s="71"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
@@ -15065,8 +15172,8 @@
       <c r="F92" s="18"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="108"/>
-      <c r="J92" s="72"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="71"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
@@ -15076,8 +15183,8 @@
       <c r="F93" s="18"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="108"/>
-      <c r="J93" s="72"/>
+      <c r="I93" s="107"/>
+      <c r="J93" s="71"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
@@ -15087,8 +15194,8 @@
       <c r="F94" s="18"/>
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="108"/>
-      <c r="J94" s="72"/>
+      <c r="I94" s="107"/>
+      <c r="J94" s="71"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
@@ -15098,8 +15205,8 @@
       <c r="F95" s="18"/>
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="108"/>
-      <c r="J95" s="72"/>
+      <c r="I95" s="107"/>
+      <c r="J95" s="71"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
@@ -15109,8 +15216,8 @@
       <c r="F96" s="18"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="108"/>
-      <c r="J96" s="72"/>
+      <c r="I96" s="107"/>
+      <c r="J96" s="71"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
@@ -15120,8 +15227,8 @@
       <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="108"/>
-      <c r="J97" s="72"/>
+      <c r="I97" s="107"/>
+      <c r="J97" s="71"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
@@ -15131,8 +15238,8 @@
       <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="108"/>
-      <c r="J98" s="72"/>
+      <c r="I98" s="107"/>
+      <c r="J98" s="71"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
@@ -15142,8 +15249,8 @@
       <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="108"/>
-      <c r="J99" s="72"/>
+      <c r="I99" s="107"/>
+      <c r="J99" s="71"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
@@ -15153,8 +15260,8 @@
       <c r="F100" s="18"/>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="108"/>
-      <c r="J100" s="72"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="71"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
@@ -15164,8 +15271,8 @@
       <c r="F101" s="18"/>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="72"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="71"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
@@ -15175,8 +15282,8 @@
       <c r="F102" s="18"/>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="108"/>
-      <c r="J102" s="72"/>
+      <c r="I102" s="107"/>
+      <c r="J102" s="71"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
@@ -15186,8 +15293,8 @@
       <c r="F103" s="18"/>
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="108"/>
-      <c r="J103" s="72"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="71"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
@@ -15197,8 +15304,8 @@
       <c r="F104" s="18"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="72"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="71"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
@@ -15208,8 +15315,8 @@
       <c r="F105" s="18"/>
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="108"/>
-      <c r="J105" s="72"/>
+      <c r="I105" s="107"/>
+      <c r="J105" s="71"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
@@ -15219,8 +15326,8 @@
       <c r="F106" s="18"/>
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="72"/>
+      <c r="I106" s="107"/>
+      <c r="J106" s="71"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
@@ -15230,8 +15337,8 @@
       <c r="F107" s="18"/>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="108"/>
-      <c r="J107" s="72"/>
+      <c r="I107" s="107"/>
+      <c r="J107" s="71"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
@@ -15241,8 +15348,8 @@
       <c r="F108" s="18"/>
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="72"/>
+      <c r="I108" s="107"/>
+      <c r="J108" s="71"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
@@ -15252,8 +15359,8 @@
       <c r="F109" s="18"/>
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="108"/>
-      <c r="J109" s="72"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="71"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
@@ -15263,8 +15370,8 @@
       <c r="F110" s="18"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="108"/>
-      <c r="J110" s="72"/>
+      <c r="I110" s="107"/>
+      <c r="J110" s="71"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
@@ -15274,8 +15381,8 @@
       <c r="F111" s="18"/>
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="108"/>
-      <c r="J111" s="72"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="71"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
@@ -15285,8 +15392,8 @@
       <c r="F112" s="18"/>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="108"/>
-      <c r="J112" s="72"/>
+      <c r="I112" s="107"/>
+      <c r="J112" s="71"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
@@ -15296,8 +15403,8 @@
       <c r="F113" s="18"/>
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="108"/>
-      <c r="J113" s="72"/>
+      <c r="I113" s="107"/>
+      <c r="J113" s="71"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
@@ -15307,8 +15414,8 @@
       <c r="F114" s="18"/>
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="108"/>
-      <c r="J114" s="72"/>
+      <c r="I114" s="107"/>
+      <c r="J114" s="71"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
@@ -15318,8 +15425,8 @@
       <c r="F115" s="18"/>
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="108"/>
-      <c r="J115" s="72"/>
+      <c r="I115" s="107"/>
+      <c r="J115" s="71"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
@@ -15329,8 +15436,8 @@
       <c r="F116" s="18"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="108"/>
-      <c r="J116" s="72"/>
+      <c r="I116" s="107"/>
+      <c r="J116" s="71"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
@@ -15340,8 +15447,8 @@
       <c r="F117" s="18"/>
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="108"/>
-      <c r="J117" s="72"/>
+      <c r="I117" s="107"/>
+      <c r="J117" s="71"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
@@ -15351,8 +15458,8 @@
       <c r="F118" s="18"/>
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="108"/>
-      <c r="J118" s="72"/>
+      <c r="I118" s="107"/>
+      <c r="J118" s="71"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
@@ -15362,8 +15469,8 @@
       <c r="F119" s="18"/>
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="108"/>
-      <c r="J119" s="72"/>
+      <c r="I119" s="107"/>
+      <c r="J119" s="71"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
@@ -15373,8 +15480,8 @@
       <c r="F120" s="18"/>
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="108"/>
-      <c r="J120" s="72"/>
+      <c r="I120" s="107"/>
+      <c r="J120" s="71"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
@@ -15384,8 +15491,8 @@
       <c r="F121" s="18"/>
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="108"/>
-      <c r="J121" s="72"/>
+      <c r="I121" s="107"/>
+      <c r="J121" s="71"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
@@ -15395,8 +15502,8 @@
       <c r="F122" s="18"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="108"/>
-      <c r="J122" s="72"/>
+      <c r="I122" s="107"/>
+      <c r="J122" s="71"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
@@ -15406,8 +15513,8 @@
       <c r="F123" s="18"/>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="108"/>
-      <c r="J123" s="72"/>
+      <c r="I123" s="107"/>
+      <c r="J123" s="71"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
@@ -15417,8 +15524,8 @@
       <c r="F124" s="18"/>
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="108"/>
-      <c r="J124" s="72"/>
+      <c r="I124" s="107"/>
+      <c r="J124" s="71"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
@@ -15428,8 +15535,8 @@
       <c r="F125" s="18"/>
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="108"/>
-      <c r="J125" s="72"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="71"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
@@ -15439,8 +15546,8 @@
       <c r="F126" s="18"/>
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="108"/>
-      <c r="J126" s="72"/>
+      <c r="I126" s="107"/>
+      <c r="J126" s="71"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
@@ -15450,8 +15557,8 @@
       <c r="F127" s="18"/>
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="108"/>
-      <c r="J127" s="72"/>
+      <c r="I127" s="107"/>
+      <c r="J127" s="71"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
@@ -15461,8 +15568,8 @@
       <c r="F128" s="18"/>
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="108"/>
-      <c r="J128" s="72"/>
+      <c r="I128" s="107"/>
+      <c r="J128" s="71"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
@@ -15472,8 +15579,8 @@
       <c r="F129" s="18"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="108"/>
-      <c r="J129" s="72"/>
+      <c r="I129" s="107"/>
+      <c r="J129" s="71"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
@@ -15483,8 +15590,8 @@
       <c r="F130" s="18"/>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="108"/>
-      <c r="J130" s="72"/>
+      <c r="I130" s="107"/>
+      <c r="J130" s="71"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
@@ -15494,8 +15601,8 @@
       <c r="F131" s="18"/>
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="108"/>
-      <c r="J131" s="72"/>
+      <c r="I131" s="107"/>
+      <c r="J131" s="71"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
@@ -15505,8 +15612,8 @@
       <c r="F132" s="18"/>
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="108"/>
-      <c r="J132" s="72"/>
+      <c r="I132" s="107"/>
+      <c r="J132" s="71"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
@@ -15516,8 +15623,8 @@
       <c r="F133" s="18"/>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="108"/>
-      <c r="J133" s="72"/>
+      <c r="I133" s="107"/>
+      <c r="J133" s="71"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
@@ -15527,8 +15634,8 @@
       <c r="F134" s="18"/>
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="108"/>
-      <c r="J134" s="72"/>
+      <c r="I134" s="107"/>
+      <c r="J134" s="71"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
@@ -15538,8 +15645,8 @@
       <c r="F135" s="18"/>
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="108"/>
-      <c r="J135" s="72"/>
+      <c r="I135" s="107"/>
+      <c r="J135" s="71"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
@@ -15549,8 +15656,8 @@
       <c r="F136" s="18"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="108"/>
-      <c r="J136" s="72"/>
+      <c r="I136" s="107"/>
+      <c r="J136" s="71"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
@@ -15560,8 +15667,8 @@
       <c r="F137" s="18"/>
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="108"/>
-      <c r="J137" s="72"/>
+      <c r="I137" s="107"/>
+      <c r="J137" s="71"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
@@ -15571,8 +15678,8 @@
       <c r="F138" s="18"/>
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="108"/>
-      <c r="J138" s="72"/>
+      <c r="I138" s="107"/>
+      <c r="J138" s="71"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
@@ -15582,8 +15689,8 @@
       <c r="F139" s="18"/>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="108"/>
-      <c r="J139" s="72"/>
+      <c r="I139" s="107"/>
+      <c r="J139" s="71"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
@@ -15593,8 +15700,8 @@
       <c r="F140" s="18"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="108"/>
-      <c r="J140" s="72"/>
+      <c r="I140" s="107"/>
+      <c r="J140" s="71"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
@@ -15604,8 +15711,8 @@
       <c r="F141" s="18"/>
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="108"/>
-      <c r="J141" s="72"/>
+      <c r="I141" s="107"/>
+      <c r="J141" s="71"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
@@ -15615,8 +15722,8 @@
       <c r="F142" s="18"/>
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="108"/>
-      <c r="J142" s="72"/>
+      <c r="I142" s="107"/>
+      <c r="J142" s="71"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
@@ -15626,8 +15733,8 @@
       <c r="F143" s="18"/>
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="108"/>
-      <c r="J143" s="72"/>
+      <c r="I143" s="107"/>
+      <c r="J143" s="71"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
@@ -15637,8 +15744,8 @@
       <c r="F144" s="18"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="108"/>
-      <c r="J144" s="72"/>
+      <c r="I144" s="107"/>
+      <c r="J144" s="71"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="2"/>
@@ -15648,8 +15755,8 @@
       <c r="F145" s="18"/>
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="108"/>
-      <c r="J145" s="72"/>
+      <c r="I145" s="107"/>
+      <c r="J145" s="71"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
@@ -15659,8 +15766,8 @@
       <c r="F146" s="18"/>
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="108"/>
-      <c r="J146" s="72"/>
+      <c r="I146" s="107"/>
+      <c r="J146" s="71"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
@@ -15670,8 +15777,8 @@
       <c r="F147" s="18"/>
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="108"/>
-      <c r="J147" s="72"/>
+      <c r="I147" s="107"/>
+      <c r="J147" s="71"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
@@ -15681,8 +15788,8 @@
       <c r="F148" s="18"/>
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="108"/>
-      <c r="J148" s="72"/>
+      <c r="I148" s="107"/>
+      <c r="J148" s="71"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
@@ -15692,8 +15799,8 @@
       <c r="F149" s="18"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="108"/>
-      <c r="J149" s="72"/>
+      <c r="I149" s="107"/>
+      <c r="J149" s="71"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
@@ -15703,8 +15810,8 @@
       <c r="F150" s="18"/>
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="108"/>
-      <c r="J150" s="72"/>
+      <c r="I150" s="107"/>
+      <c r="J150" s="71"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
@@ -15714,8 +15821,8 @@
       <c r="F151" s="18"/>
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="108"/>
-      <c r="J151" s="72"/>
+      <c r="I151" s="107"/>
+      <c r="J151" s="71"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
@@ -15725,8 +15832,8 @@
       <c r="F152" s="18"/>
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="108"/>
-      <c r="J152" s="72"/>
+      <c r="I152" s="107"/>
+      <c r="J152" s="71"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
@@ -15736,8 +15843,8 @@
       <c r="F153" s="18"/>
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="108"/>
-      <c r="J153" s="72"/>
+      <c r="I153" s="107"/>
+      <c r="J153" s="71"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
@@ -15747,8 +15854,8 @@
       <c r="F154" s="18"/>
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="108"/>
-      <c r="J154" s="72"/>
+      <c r="I154" s="107"/>
+      <c r="J154" s="71"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
@@ -15758,8 +15865,8 @@
       <c r="F155" s="18"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="108"/>
-      <c r="J155" s="72"/>
+      <c r="I155" s="107"/>
+      <c r="J155" s="71"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
@@ -15769,8 +15876,8 @@
       <c r="F156" s="18"/>
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="108"/>
-      <c r="J156" s="72"/>
+      <c r="I156" s="107"/>
+      <c r="J156" s="71"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
@@ -15780,8 +15887,8 @@
       <c r="F157" s="18"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="108"/>
-      <c r="J157" s="72"/>
+      <c r="I157" s="107"/>
+      <c r="J157" s="71"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
@@ -15791,8 +15898,8 @@
       <c r="F158" s="18"/>
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="108"/>
-      <c r="J158" s="72"/>
+      <c r="I158" s="107"/>
+      <c r="J158" s="71"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
@@ -15802,8 +15909,8 @@
       <c r="F159" s="18"/>
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="108"/>
-      <c r="J159" s="72"/>
+      <c r="I159" s="107"/>
+      <c r="J159" s="71"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
@@ -15813,8 +15920,8 @@
       <c r="F160" s="18"/>
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="108"/>
-      <c r="J160" s="72"/>
+      <c r="I160" s="107"/>
+      <c r="J160" s="71"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
@@ -15824,8 +15931,8 @@
       <c r="F161" s="18"/>
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="108"/>
-      <c r="J161" s="72"/>
+      <c r="I161" s="107"/>
+      <c r="J161" s="71"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
@@ -15835,8 +15942,8 @@
       <c r="F162" s="18"/>
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="108"/>
-      <c r="J162" s="72"/>
+      <c r="I162" s="107"/>
+      <c r="J162" s="71"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
@@ -15846,8 +15953,8 @@
       <c r="F163" s="18"/>
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="108"/>
-      <c r="J163" s="72"/>
+      <c r="I163" s="107"/>
+      <c r="J163" s="71"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
@@ -15857,8 +15964,8 @@
       <c r="F164" s="18"/>
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="108"/>
-      <c r="J164" s="72"/>
+      <c r="I164" s="107"/>
+      <c r="J164" s="71"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
@@ -15868,8 +15975,8 @@
       <c r="F165" s="18"/>
       <c r="G165" s="3"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="108"/>
-      <c r="J165" s="72"/>
+      <c r="I165" s="107"/>
+      <c r="J165" s="71"/>
     </row>
     <row r="166" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="6"/>
@@ -15879,8 +15986,8 @@
       <c r="F166" s="37"/>
       <c r="G166" s="7"/>
       <c r="H166" s="8"/>
-      <c r="I166" s="87"/>
-      <c r="J166" s="115"/>
+      <c r="I166" s="86"/>
+      <c r="J166" s="114"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:J3" xr:uid="{A0663F6C-9AF6-4F46-95AF-C630DE6E8D47}">
@@ -15943,29 +16050,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="123" t="s">
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="121" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="130" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -15984,7 +16091,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>

--- a/DIRECTORIO_FUNCIONES.xlsx
+++ b/DIRECTORIO_FUNCIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InSync\GitHub\Producto-Desarrollo-Herramientas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137DFBF-2C38-411C-86CC-7F8DDC07AA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A33F2F-EA27-4BBA-B94F-96D26ED67F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{109BCD2E-DB73-49E5-A85A-7F976E2CCA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="WINDOWS" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="335">
   <si>
     <t>Nombre</t>
   </si>
@@ -1051,6 +1051,12 @@
   </si>
   <si>
     <t>Dar formato de encabezado de las tablas de reacciones que saca SAP2000 a un excel que queramos en un rango dado. Solo pone el formato, no el texto.</t>
+  </si>
+  <si>
+    <t>UnlockModel</t>
+  </si>
+  <si>
+    <t>Desbloquea un modelo SAP2000 calculado.</t>
   </si>
 </sst>
 </file>
@@ -2229,26 +2235,77 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2259,125 +2316,137 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2394,54 +2463,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2450,21 +2471,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2810,8 +2816,8 @@
   </sheetPr>
   <dimension ref="B1:J170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,29 +2832,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -2867,7 +2873,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
@@ -2876,13 +2882,13 @@
       <c r="C4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="194" t="s">
+      <c r="F4" s="131" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="30" t="s">
@@ -2908,7 +2914,7 @@
       <c r="D5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="196" t="s">
+      <c r="E5" s="133" t="s">
         <v>324</v>
       </c>
       <c r="F5" s="110" t="s">
@@ -2934,13 +2940,13 @@
       <c r="C6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="193" t="s">
+      <c r="E6" s="130" t="s">
         <v>324</v>
       </c>
-      <c r="F6" s="195" t="s">
+      <c r="F6" s="132" t="s">
         <v>325</v>
       </c>
       <c r="G6" s="30" t="s">
@@ -2986,10 +2992,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="141" t="s">
         <v>70</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -3001,22 +3007,22 @@
       <c r="F8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="141" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="7" t="s">
         <v>64</v>
       </c>
@@ -3026,10 +3032,10 @@
       <c r="F9" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="139"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="137"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
@@ -4833,8 +4839,8 @@
   </sheetPr>
   <dimension ref="B1:J168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4855,29 +4861,29 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -4896,7 +4902,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
@@ -4957,10 +4963,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="149" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -4972,22 +4978,22 @@
       <c r="F6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="152" t="s">
+      <c r="I6" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="144" t="s">
+      <c r="J6" s="149" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
@@ -4997,10 +5003,10 @@
       <c r="F7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="139"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="145"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
@@ -5032,10 +5038,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -5047,22 +5053,22 @@
       <c r="F9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="138" t="s">
+      <c r="G9" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="140" t="s">
+      <c r="H9" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="152" t="s">
+      <c r="I9" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="J9" s="141" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
@@ -5072,14 +5078,14 @@
       <c r="F10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="161"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="167"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="145"/>
-      <c r="C11" s="145"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
@@ -5089,16 +5095,16 @@
       <c r="F11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="137"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="169" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -5110,22 +5116,22 @@
       <c r="F12" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="168" t="s">
+      <c r="J12" s="163" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
       <c r="D13" s="48" t="s">
         <v>45</v>
       </c>
@@ -5135,16 +5141,16 @@
       <c r="F13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="147"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="168"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="149" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="35" t="s">
@@ -5156,22 +5162,22 @@
       <c r="F14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="G14" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="152" t="s">
+      <c r="I14" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="136" t="s">
+      <c r="J14" s="141" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
@@ -5181,16 +5187,16 @@
       <c r="F15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="139"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="137"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="142"/>
     </row>
     <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="155" t="s">
+      <c r="C16" s="159" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="61" t="s">
@@ -5202,22 +5208,22 @@
       <c r="F16" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="146" t="s">
+      <c r="G16" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="148" t="s">
+      <c r="H16" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="150" t="s">
+      <c r="I16" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="155" t="s">
+      <c r="J16" s="159" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="67" t="s">
         <v>7</v>
       </c>
@@ -5227,10 +5233,10 @@
       <c r="F17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="157"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
@@ -5262,10 +5268,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="159" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="61" t="s">
@@ -5277,22 +5283,22 @@
       <c r="F19" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="146" t="s">
+      <c r="G19" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="148" t="s">
+      <c r="H19" s="151" t="s">
         <v>200</v>
       </c>
-      <c r="I19" s="150" t="s">
+      <c r="I19" s="153" t="s">
         <v>201</v>
       </c>
-      <c r="J19" s="155" t="s">
+      <c r="J19" s="159" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="67" t="s">
         <v>64</v>
       </c>
@@ -5302,16 +5308,16 @@
       <c r="F20" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="G20" s="147"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="157"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="149" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="149" t="s">
         <v>212</v>
       </c>
       <c r="D21" s="35" t="s">
@@ -5323,22 +5329,22 @@
       <c r="F21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="138" t="s">
+      <c r="G21" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="140" t="s">
+      <c r="H21" s="145" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="152" t="s">
+      <c r="I21" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="J21" s="136" t="s">
+      <c r="J21" s="141" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="166"/>
-      <c r="C22" s="145"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="150"/>
       <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
@@ -5348,16 +5354,16 @@
       <c r="F22" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="139"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="137"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="142"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="159" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="61" t="s">
@@ -5369,22 +5375,22 @@
       <c r="F23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="146" t="s">
+      <c r="G23" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="H23" s="148" t="s">
+      <c r="H23" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="I23" s="150" t="s">
+      <c r="I23" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="J23" s="164" t="s">
+      <c r="J23" s="155" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="67" t="s">
         <v>7</v>
       </c>
@@ -5394,16 +5400,16 @@
       <c r="F24" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="147"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="165"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="149" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="149" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -5415,22 +5421,22 @@
       <c r="F25" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="138" t="s">
+      <c r="G25" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="140" t="s">
+      <c r="H25" s="145" t="s">
         <v>233</v>
       </c>
-      <c r="I25" s="152" t="s">
+      <c r="I25" s="157" t="s">
         <v>234</v>
       </c>
-      <c r="J25" s="136" t="s">
+      <c r="J25" s="141" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
@@ -5440,14 +5446,14 @@
       <c r="F26" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="161"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="154"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="164"/>
     </row>
     <row r="27" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
@@ -5457,14 +5463,14 @@
       <c r="F27" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="161"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="154"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
       <c r="D28" s="7" t="s">
         <v>230</v>
       </c>
@@ -5474,16 +5480,16 @@
       <c r="F28" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="G28" s="139"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="145"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="150"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="159" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="159" t="s">
         <v>212</v>
       </c>
       <c r="D29" s="61" t="s">
@@ -5495,22 +5501,22 @@
       <c r="F29" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="146" t="s">
+      <c r="G29" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="148" t="s">
+      <c r="H29" s="151" t="s">
         <v>240</v>
       </c>
-      <c r="I29" s="150" t="s">
+      <c r="I29" s="153" t="s">
         <v>241</v>
       </c>
-      <c r="J29" s="155" t="s">
+      <c r="J29" s="159" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="64" t="s">
         <v>182</v>
       </c>
@@ -5520,14 +5526,14 @@
       <c r="F30" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="156"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="169"/>
     </row>
     <row r="31" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
       <c r="D31" s="67" t="s">
         <v>230</v>
       </c>
@@ -5537,16 +5543,16 @@
       <c r="F31" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="147"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="157"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="149" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="149" t="s">
         <v>212</v>
       </c>
       <c r="D32" s="35" t="s">
@@ -5558,22 +5564,22 @@
       <c r="F32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="138" t="s">
+      <c r="G32" s="143" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="140" t="s">
+      <c r="H32" s="145" t="s">
         <v>245</v>
       </c>
-      <c r="I32" s="152" t="s">
+      <c r="I32" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="J32" s="144" t="s">
+      <c r="J32" s="149" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
       <c r="D33" s="7" t="s">
         <v>230</v>
       </c>
@@ -5583,16 +5589,16 @@
       <c r="F33" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="G33" s="139"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="145"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="150"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="159" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="159" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="61" t="s">
@@ -5604,22 +5610,22 @@
       <c r="F34" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="146" t="s">
+      <c r="G34" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="H34" s="148" t="s">
+      <c r="H34" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="I34" s="150" t="s">
+      <c r="I34" s="153" t="s">
         <v>251</v>
       </c>
-      <c r="J34" s="164" t="s">
+      <c r="J34" s="155" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
+      <c r="B35" s="169"/>
+      <c r="C35" s="169"/>
       <c r="D35" s="117" t="s">
         <v>7</v>
       </c>
@@ -5629,14 +5635,14 @@
       <c r="F35" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="158"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="168"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="163"/>
     </row>
     <row r="36" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
       <c r="D36" s="67" t="s">
         <v>7</v>
       </c>
@@ -5646,16 +5652,16 @@
       <c r="F36" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="G36" s="147"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="165"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="149" t="s">
         <v>212</v>
       </c>
       <c r="D37" s="35" t="s">
@@ -5667,22 +5673,22 @@
       <c r="F37" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="138" t="s">
+      <c r="G37" s="143" t="s">
         <v>230</v>
       </c>
-      <c r="H37" s="140" t="s">
+      <c r="H37" s="145" t="s">
         <v>258</v>
       </c>
-      <c r="I37" s="152" t="s">
+      <c r="I37" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="J37" s="136" t="s">
+      <c r="J37" s="141" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
       <c r="D38" s="3" t="s">
         <v>182</v>
       </c>
@@ -5692,14 +5698,14 @@
       <c r="F38" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="G38" s="161"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="167"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="168"/>
     </row>
     <row r="39" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
       <c r="D39" s="7" t="s">
         <v>45</v>
       </c>
@@ -5709,10 +5715,10 @@
       <c r="F39" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="139"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="137"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="158"/>
+      <c r="J39" s="142"/>
     </row>
     <row r="40" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
@@ -5918,39 +5924,39 @@
       </c>
     </row>
     <row r="47" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="D47" s="121" t="s">
+      <c r="D47" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="122" t="s">
+      <c r="E47" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="123" t="s">
+      <c r="F47" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="121" t="s">
+      <c r="G47" s="120" t="s">
         <v>270</v>
       </c>
-      <c r="H47" s="122" t="s">
+      <c r="H47" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="I47" s="124" t="s">
+      <c r="I47" s="123" t="s">
         <v>290</v>
       </c>
-      <c r="J47" s="125" t="s">
+      <c r="J47" s="124" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="159" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="155" t="s">
+      <c r="C48" s="159" t="s">
         <v>262</v>
       </c>
       <c r="D48" s="61" t="s">
@@ -5962,22 +5968,22 @@
       <c r="F48" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="146" t="s">
+      <c r="G48" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="148" t="s">
+      <c r="H48" s="151" t="s">
         <v>293</v>
       </c>
-      <c r="I48" s="150" t="s">
+      <c r="I48" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="J48" s="164" t="s">
+      <c r="J48" s="155" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="160"/>
       <c r="D49" s="67" t="s">
         <v>38</v>
       </c>
@@ -5987,16 +5993,16 @@
       <c r="F49" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="147"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="165"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="156"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="144" t="s">
+      <c r="B50" s="149" t="s">
         <v>301</v>
       </c>
-      <c r="C50" s="144" t="s">
+      <c r="C50" s="149" t="s">
         <v>262</v>
       </c>
       <c r="D50" s="35" t="s">
@@ -6008,22 +6014,22 @@
       <c r="F50" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="138" t="s">
+      <c r="G50" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="140" t="s">
+      <c r="H50" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="I50" s="152" t="s">
+      <c r="I50" s="157" t="s">
         <v>305</v>
       </c>
-      <c r="J50" s="136" t="s">
+      <c r="J50" s="141" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
       <c r="D51" s="7" t="s">
         <v>38</v>
       </c>
@@ -6033,16 +6039,16 @@
       <c r="F51" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="G51" s="139"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="137"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="142"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="159" t="s">
         <v>307</v>
       </c>
-      <c r="C52" s="155" t="s">
+      <c r="C52" s="159" t="s">
         <v>262</v>
       </c>
       <c r="D52" s="61" t="s">
@@ -6054,22 +6060,22 @@
       <c r="F52" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="146" t="s">
+      <c r="G52" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="148" t="s">
+      <c r="H52" s="151" t="s">
         <v>308</v>
       </c>
-      <c r="I52" s="150" t="s">
+      <c r="I52" s="153" t="s">
         <v>309</v>
       </c>
-      <c r="J52" s="164" t="s">
+      <c r="J52" s="155" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="157"/>
-      <c r="C53" s="157"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="160"/>
       <c r="D53" s="67" t="s">
         <v>38</v>
       </c>
@@ -6079,16 +6085,16 @@
       <c r="F53" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="G53" s="147"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="165"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="156"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="149" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="149" t="s">
         <v>262</v>
       </c>
       <c r="D54" s="35" t="s">
@@ -6100,22 +6106,22 @@
       <c r="F54" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="138" t="s">
+      <c r="G54" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="H54" s="140" t="s">
+      <c r="H54" s="145" t="s">
         <v>312</v>
       </c>
-      <c r="I54" s="152" t="s">
+      <c r="I54" s="157" t="s">
         <v>313</v>
       </c>
-      <c r="J54" s="136" t="s">
+      <c r="J54" s="141" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="150"/>
       <c r="D55" s="7" t="s">
         <v>38</v>
       </c>
@@ -6125,16 +6131,16 @@
       <c r="F55" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="G55" s="139"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="137"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="158"/>
+      <c r="J55" s="142"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="155" t="s">
+      <c r="B56" s="159" t="s">
         <v>315</v>
       </c>
-      <c r="C56" s="155" t="s">
+      <c r="C56" s="159" t="s">
         <v>262</v>
       </c>
       <c r="D56" s="61" t="s">
@@ -6146,22 +6152,22 @@
       <c r="F56" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="146" t="s">
+      <c r="G56" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="148" t="s">
+      <c r="H56" s="151" t="s">
         <v>316</v>
       </c>
-      <c r="I56" s="150" t="s">
+      <c r="I56" s="153" t="s">
         <v>317</v>
       </c>
-      <c r="J56" s="164" t="s">
+      <c r="J56" s="155" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="160"/>
       <c r="D57" s="67" t="s">
         <v>38</v>
       </c>
@@ -6171,16 +6177,16 @@
       <c r="F57" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="G57" s="147"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="165"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="156"/>
     </row>
     <row r="58" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="149" t="s">
         <v>262</v>
       </c>
       <c r="D58" s="35" t="s">
@@ -6192,22 +6198,22 @@
       <c r="F58" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="138" t="s">
+      <c r="G58" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="H58" s="140" t="s">
+      <c r="H58" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="I58" s="152" t="s">
+      <c r="I58" s="157" t="s">
         <v>321</v>
       </c>
-      <c r="J58" s="144" t="s">
+      <c r="J58" s="149" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="145"/>
-      <c r="C59" s="145"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
       <c r="D59" s="7" t="s">
         <v>64</v>
       </c>
@@ -6217,32 +6223,50 @@
       <c r="F59" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="G59" s="139"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="153"/>
-      <c r="J59" s="145"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="119"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="146"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="150"/>
+    </row>
+    <row r="60" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="80" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="5"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="129"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
@@ -7429,63 +7453,44 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="119">
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="J23:J24"/>
@@ -7510,44 +7515,63 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="H58:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7560,7 +7584,7 @@
   </sheetPr>
   <dimension ref="B1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -7580,29 +7604,29 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -7621,13 +7645,13 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="149" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -7639,22 +7663,22 @@
       <c r="F4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="142" t="s">
+      <c r="I4" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="144" t="s">
+      <c r="J4" s="149" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -7664,14 +7688,14 @@
       <c r="F5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="154"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="3" t="s">
         <v>81</v>
       </c>
@@ -7681,14 +7705,14 @@
       <c r="F6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="154"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
@@ -7698,14 +7722,14 @@
       <c r="F7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="154"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
       <c r="D8" s="7" t="s">
         <v>82</v>
       </c>
@@ -7715,16 +7739,16 @@
       <c r="F8" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="139"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="145"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="159" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="61" t="s">
@@ -7736,22 +7760,22 @@
       <c r="F9" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="148" t="s">
+      <c r="H9" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="174" t="s">
+      <c r="I9" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="155" t="s">
+      <c r="J9" s="159" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="64" t="s">
         <v>94</v>
       </c>
@@ -7761,14 +7785,14 @@
       <c r="F10" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="156"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="169"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="67" t="s">
         <v>81</v>
       </c>
@@ -7778,16 +7802,16 @@
       <c r="F11" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="157"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="149" t="s">
         <v>80</v>
       </c>
       <c r="D12" s="35" t="s">
@@ -7799,22 +7823,22 @@
       <c r="F12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="138" t="s">
+      <c r="G12" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="140" t="s">
+      <c r="H12" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="144" t="s">
+      <c r="J12" s="149" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -7824,14 +7848,14 @@
       <c r="F13" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="161"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="154"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="164"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="3" t="s">
         <v>64</v>
       </c>
@@ -7841,14 +7865,14 @@
       <c r="F14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="154"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="3" t="s">
         <v>81</v>
       </c>
@@ -7858,14 +7882,14 @@
       <c r="F15" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="154"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="164"/>
     </row>
     <row r="16" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
@@ -7875,14 +7899,14 @@
       <c r="F16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="154"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="164"/>
     </row>
     <row r="17" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
       <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
@@ -7892,16 +7916,16 @@
       <c r="F17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="139"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="145"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="159" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="61" t="s">
@@ -7913,22 +7937,22 @@
       <c r="F18" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="146" t="s">
+      <c r="G18" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="148" t="s">
+      <c r="H18" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="174" t="s">
+      <c r="I18" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="155" t="s">
+      <c r="J18" s="159" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
       <c r="D19" s="64" t="s">
         <v>94</v>
       </c>
@@ -7938,14 +7962,14 @@
       <c r="F19" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="158"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="156"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="169"/>
     </row>
     <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="64" t="s">
         <v>94</v>
       </c>
@@ -7955,14 +7979,14 @@
       <c r="F20" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="156"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="169"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="67" t="s">
         <v>81</v>
       </c>
@@ -7972,10 +7996,10 @@
       <c r="F21" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="147"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="157"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="72" t="s">
@@ -8094,10 +8118,10 @@
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="149" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -8109,22 +8133,22 @@
       <c r="F26" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="138" t="s">
+      <c r="G26" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="140" t="s">
+      <c r="H26" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="142" t="s">
+      <c r="I26" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="144" t="s">
+      <c r="J26" s="149" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
       <c r="D27" s="58" t="s">
         <v>81</v>
       </c>
@@ -8134,16 +8158,16 @@
       <c r="F27" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="139"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="145"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="193" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="61" t="s">
@@ -8155,22 +8179,22 @@
       <c r="F28" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="146" t="s">
+      <c r="G28" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="148" t="s">
+      <c r="H28" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="174" t="s">
+      <c r="I28" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="155" t="s">
+      <c r="J28" s="159" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="157"/>
-      <c r="C29" s="173"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="194"/>
       <c r="D29" s="67" t="s">
         <v>81</v>
       </c>
@@ -8180,16 +8204,16 @@
       <c r="F29" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="147"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="157"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="178" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="98" t="s">
@@ -8201,22 +8225,22 @@
       <c r="F30" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="179" t="s">
+      <c r="G30" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="182" t="s">
+      <c r="H30" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="185" t="s">
+      <c r="I30" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="169" t="s">
+      <c r="J30" s="190" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
+      <c r="B31" s="179"/>
+      <c r="C31" s="179"/>
       <c r="D31" s="90" t="s">
         <v>7</v>
       </c>
@@ -8226,14 +8250,14 @@
       <c r="F31" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="180"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="170"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="191"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="93" t="s">
         <v>81</v>
       </c>
@@ -8243,16 +8267,16 @@
       <c r="F32" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="181"/>
-      <c r="H32" s="184"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="171"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="192"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="155" t="s">
+      <c r="C33" s="159" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="61" t="s">
@@ -8264,22 +8288,22 @@
       <c r="F33" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="146" t="s">
+      <c r="G33" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="148" t="s">
+      <c r="H33" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="174" t="s">
+      <c r="I33" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="164" t="s">
+      <c r="J33" s="155" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="169"/>
       <c r="D34" s="64" t="s">
         <v>7</v>
       </c>
@@ -8289,14 +8313,14 @@
       <c r="F34" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="158"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="168"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="163"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
       <c r="D35" s="67" t="s">
         <v>81</v>
       </c>
@@ -8306,16 +8330,16 @@
       <c r="F35" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="147"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="165"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="178" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="87" t="s">
@@ -8327,22 +8351,22 @@
       <c r="F36" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="179" t="s">
+      <c r="G36" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="182" t="s">
+      <c r="H36" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="185" t="s">
+      <c r="I36" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="169" t="s">
+      <c r="J36" s="190" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="90" t="s">
         <v>7</v>
       </c>
@@ -8352,14 +8376,14 @@
       <c r="F37" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="180"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="170"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="191"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
       <c r="D38" s="101" t="s">
         <v>81</v>
       </c>
@@ -8369,14 +8393,14 @@
       <c r="F38" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="180"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="170"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="191"/>
     </row>
     <row r="39" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="178"/>
-      <c r="C39" s="178"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
       <c r="D39" s="93" t="s">
         <v>82</v>
       </c>
@@ -8386,10 +8410,10 @@
       <c r="F39" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="G39" s="181"/>
-      <c r="H39" s="184"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="171"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="192"/>
     </row>
     <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="75" t="s">
@@ -8479,10 +8503,10 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="144" t="s">
+      <c r="B43" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="149" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="35" t="s">
@@ -8500,16 +8524,16 @@
       <c r="H43" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="197" t="s">
+      <c r="I43" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="136" t="s">
+      <c r="J43" s="141" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
       <c r="D44" s="11" t="s">
         <v>7</v>
       </c>
@@ -8528,12 +8552,12 @@
       <c r="I44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="167"/>
+      <c r="J44" s="168"/>
     </row>
     <row r="45" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="127" t="s">
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="126" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -8551,7 +8575,7 @@
       <c r="I45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="137"/>
+      <c r="J45" s="142"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
@@ -8562,7 +8586,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="129"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
@@ -9936,6 +9960,52 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="62">
+    <mergeCell ref="J36:J39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="G12:G17"/>
+    <mergeCell ref="H12:H17"/>
+    <mergeCell ref="I12:I17"/>
+    <mergeCell ref="J12:J17"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="J43:J45"/>
@@ -9952,52 +10022,6 @@
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="G12:G17"/>
-    <mergeCell ref="H12:H17"/>
-    <mergeCell ref="I12:I17"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J33:J35"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="J36:J39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="G33:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10033,29 +10057,29 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -10074,13 +10098,13 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="149" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -10101,13 +10125,13 @@
       <c r="I4" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="141" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
@@ -10126,11 +10150,11 @@
       <c r="I5" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
@@ -10149,7 +10173,7 @@
       <c r="I6" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="137"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="75" t="s">
@@ -10268,10 +10292,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="159" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="61" t="s">
@@ -10283,22 +10307,22 @@
       <c r="F11" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="148" t="s">
+      <c r="H11" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="150" t="s">
+      <c r="I11" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="155" t="s">
+      <c r="J11" s="159" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157"/>
-      <c r="C12" s="157"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="112" t="s">
         <v>149</v>
       </c>
@@ -10308,10 +10332,10 @@
       <c r="F12" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="147"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="157"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
@@ -10372,10 +10396,10 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="149" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="149" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="113" t="s">
@@ -10387,22 +10411,22 @@
       <c r="F15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="138" t="s">
+      <c r="G15" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="140" t="s">
+      <c r="H15" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="152" t="s">
+      <c r="I15" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="136" t="s">
+      <c r="J15" s="141" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
       <c r="D16" s="7" t="s">
         <v>64</v>
       </c>
@@ -10412,10 +10436,10 @@
       <c r="F16" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="139"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="137"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="142"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
@@ -12098,11 +12122,12 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="J4:J6"/>
@@ -12112,12 +12137,11 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12144,29 +12168,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -12185,7 +12209,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
@@ -14015,29 +14039,29 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -14056,13 +14080,13 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="149" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="35" t="s">
@@ -14074,22 +14098,22 @@
       <c r="F4" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="152" t="s">
+      <c r="I4" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="141" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
       <c r="D5" s="7" t="s">
         <v>176</v>
       </c>
@@ -14099,16 +14123,16 @@
       <c r="F5" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="139"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="137"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="159" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="61" t="s">
@@ -14120,22 +14144,22 @@
       <c r="F6" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="150" t="s">
+      <c r="I6" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="164" t="s">
+      <c r="J6" s="155" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
       <c r="D7" s="64" t="s">
         <v>182</v>
       </c>
@@ -14145,14 +14169,14 @@
       <c r="F7" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="168"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="67" t="s">
         <v>7</v>
       </c>
@@ -14162,16 +14186,16 @@
       <c r="F8" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="165"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="156"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="178" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="87" t="s">
@@ -14183,22 +14207,22 @@
       <c r="F9" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="181" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="182" t="s">
+      <c r="H9" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="190" t="s">
+      <c r="I9" s="195" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="169" t="s">
+      <c r="J9" s="190" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
       <c r="D10" s="90" t="s">
         <v>182</v>
       </c>
@@ -14208,14 +14232,14 @@
       <c r="F10" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="170"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="191"/>
     </row>
     <row r="11" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
       <c r="D11" s="93" t="s">
         <v>7</v>
       </c>
@@ -14225,16 +14249,16 @@
       <c r="F11" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="181"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="171"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="192"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="159" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -14246,22 +14270,22 @@
       <c r="F12" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="164" t="s">
+      <c r="J12" s="155" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
       <c r="D13" s="64" t="s">
         <v>182</v>
       </c>
@@ -14271,14 +14295,14 @@
       <c r="F13" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="158"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="168"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
       <c r="D14" s="48" t="s">
         <v>7</v>
       </c>
@@ -14288,14 +14312,14 @@
       <c r="F14" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="158"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="168"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="2:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="67" t="s">
         <v>82</v>
       </c>
@@ -14305,10 +14329,10 @@
       <c r="F15" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="147"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="165"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="2:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
@@ -15997,11 +16021,18 @@
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
@@ -16014,18 +16045,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16050,29 +16074,29 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="132" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="130" t="s">
+      <c r="H2" s="138"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="135" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
@@ -16091,7 +16115,7 @@
       <c r="I3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="131"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
